--- a/BackTest/2020-01-24 BackTest DAC.xlsx
+++ b/BackTest/2020-01-24 BackTest DAC.xlsx
@@ -8272,10 +8272,14 @@
         <v>-937504.1318999999</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I239" t="n">
+        <v>1.916</v>
+      </c>
+      <c r="J239" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
@@ -8305,11 +8309,19 @@
         <v>-891026.6614999999</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I240" t="n">
+        <v>1.915</v>
+      </c>
+      <c r="J240" t="n">
+        <v>1.916</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8341,8 +8353,14 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>1.916</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8374,8 +8392,14 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>1.916</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8407,8 +8431,14 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>1.916</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8440,8 +8470,14 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>1.916</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8473,8 +8509,14 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>1.916</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8506,8 +8548,14 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>1.916</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8536,11 +8584,19 @@
         <v>-903878.1574</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I247" t="n">
+        <v>1.918</v>
+      </c>
+      <c r="J247" t="n">
+        <v>1.916</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8569,11 +8625,19 @@
         <v>-943556.987</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I248" t="n">
+        <v>1.917</v>
+      </c>
+      <c r="J248" t="n">
+        <v>1.916</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8602,11 +8666,19 @@
         <v>-895852.3602999999</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I249" t="n">
+        <v>1.915</v>
+      </c>
+      <c r="J249" t="n">
+        <v>1.916</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8635,11 +8707,19 @@
         <v>-832227.595</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I250" t="n">
+        <v>1.917</v>
+      </c>
+      <c r="J250" t="n">
+        <v>1.916</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8668,11 +8748,19 @@
         <v>-832227.595</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
-      </c>
-      <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I251" t="n">
+        <v>1.918</v>
+      </c>
+      <c r="J251" t="n">
+        <v>1.916</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -8701,11 +8789,19 @@
         <v>-772272.6309999999</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
-      </c>
-      <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I252" t="n">
+        <v>1.918</v>
+      </c>
+      <c r="J252" t="n">
+        <v>1.916</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -8734,11 +8830,19 @@
         <v>-789248.8372</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I253" t="n">
+        <v>1.919</v>
+      </c>
+      <c r="J253" t="n">
+        <v>1.916</v>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -8767,11 +8871,19 @@
         <v>-739493.5669</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
-      </c>
-      <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I254" t="n">
+        <v>1.916</v>
+      </c>
+      <c r="J254" t="n">
+        <v>1.916</v>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -8800,11 +8912,19 @@
         <v>-774558.3743</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
-      </c>
-      <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I255" t="n">
+        <v>1.919</v>
+      </c>
+      <c r="J255" t="n">
+        <v>1.916</v>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -8833,11 +8953,19 @@
         <v>-824109.1239</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
-      </c>
-      <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I256" t="n">
+        <v>1.917</v>
+      </c>
+      <c r="J256" t="n">
+        <v>1.916</v>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -8866,11 +8994,19 @@
         <v>-786802.5832</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
-      </c>
-      <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I257" t="n">
+        <v>1.916</v>
+      </c>
+      <c r="J257" t="n">
+        <v>1.916</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -8899,11 +9035,19 @@
         <v>-809617.5222</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
-      </c>
-      <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I258" t="n">
+        <v>1.918</v>
+      </c>
+      <c r="J258" t="n">
+        <v>1.916</v>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -8932,11 +9076,19 @@
         <v>-749048.0987</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
-      </c>
-      <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I259" t="n">
+        <v>1.916</v>
+      </c>
+      <c r="J259" t="n">
+        <v>1.916</v>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -8965,11 +9117,19 @@
         <v>-799243.6074</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
-      </c>
-      <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I260" t="n">
+        <v>1.918</v>
+      </c>
+      <c r="J260" t="n">
+        <v>1.916</v>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -8998,11 +9158,19 @@
         <v>-848072.015</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
-      </c>
-      <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I261" t="n">
+        <v>1.917</v>
+      </c>
+      <c r="J261" t="n">
+        <v>1.916</v>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9031,11 +9199,19 @@
         <v>-807103.395</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
-      </c>
-      <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I262" t="n">
+        <v>1.915</v>
+      </c>
+      <c r="J262" t="n">
+        <v>1.916</v>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9064,11 +9240,19 @@
         <v>-829381.9797</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
-      </c>
-      <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I263" t="n">
+        <v>1.919</v>
+      </c>
+      <c r="J263" t="n">
+        <v>1.916</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9097,11 +9281,19 @@
         <v>-874981.5472</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
-      </c>
-      <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I264" t="n">
+        <v>1.918</v>
+      </c>
+      <c r="J264" t="n">
+        <v>1.916</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9130,11 +9322,19 @@
         <v>-874981.5472</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
-      </c>
-      <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I265" t="n">
+        <v>1.915</v>
+      </c>
+      <c r="J265" t="n">
+        <v>1.916</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9163,11 +9363,19 @@
         <v>-874981.5472</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
-      </c>
-      <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I266" t="n">
+        <v>1.915</v>
+      </c>
+      <c r="J266" t="n">
+        <v>1.916</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9196,11 +9404,19 @@
         <v>-832921.5979000001</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
-      </c>
-      <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I267" t="n">
+        <v>1.915</v>
+      </c>
+      <c r="J267" t="n">
+        <v>1.916</v>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9229,11 +9445,19 @@
         <v>-884448.4883000001</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
-      </c>
-      <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I268" t="n">
+        <v>1.918</v>
+      </c>
+      <c r="J268" t="n">
+        <v>1.916</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9262,11 +9486,19 @@
         <v>-958151.2427000001</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
-      </c>
-      <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I269" t="n">
+        <v>1.916</v>
+      </c>
+      <c r="J269" t="n">
+        <v>1.916</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9295,11 +9527,19 @@
         <v>-934405.8938000001</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
-      </c>
-      <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I270" t="n">
+        <v>1.915</v>
+      </c>
+      <c r="J270" t="n">
+        <v>1.916</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9328,11 +9568,19 @@
         <v>-984848.6021</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
-      </c>
-      <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I271" t="n">
+        <v>1.918</v>
+      </c>
+      <c r="J271" t="n">
+        <v>1.916</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9361,11 +9609,19 @@
         <v>-944902.3740000001</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
-      </c>
-      <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I272" t="n">
+        <v>1.915</v>
+      </c>
+      <c r="J272" t="n">
+        <v>1.916</v>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9394,11 +9650,19 @@
         <v>-905477.8997000001</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
-      </c>
-      <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I273" t="n">
+        <v>1.918</v>
+      </c>
+      <c r="J273" t="n">
+        <v>1.916</v>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9427,11 +9691,19 @@
         <v>-960268.7146000001</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
-      </c>
-      <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I274" t="n">
+        <v>1.919</v>
+      </c>
+      <c r="J274" t="n">
+        <v>1.916</v>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9460,11 +9732,19 @@
         <v>-932271.2586000001</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
-      </c>
-      <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I275" t="n">
+        <v>1.915</v>
+      </c>
+      <c r="J275" t="n">
+        <v>1.916</v>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9493,11 +9773,19 @@
         <v>-883228.7497</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
-      </c>
-      <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I276" t="n">
+        <v>1.918</v>
+      </c>
+      <c r="J276" t="n">
+        <v>1.916</v>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9526,11 +9814,19 @@
         <v>-911064.8365000001</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
-      </c>
-      <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I277" t="n">
+        <v>1.919</v>
+      </c>
+      <c r="J277" t="n">
+        <v>1.916</v>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9559,11 +9855,19 @@
         <v>-890451.4346</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
-      </c>
-      <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I278" t="n">
+        <v>1.918</v>
+      </c>
+      <c r="J278" t="n">
+        <v>1.916</v>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9597,10 +9901,12 @@
       <c r="I279" t="n">
         <v>1.919</v>
       </c>
-      <c r="J279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K279" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L279" t="n">
@@ -9636,7 +9942,9 @@
       <c r="I280" t="n">
         <v>1.918</v>
       </c>
-      <c r="J280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9675,7 +9983,9 @@
       <c r="I281" t="n">
         <v>1.915</v>
       </c>
-      <c r="J281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9714,7 +10024,9 @@
       <c r="I282" t="n">
         <v>1.916</v>
       </c>
-      <c r="J282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9753,7 +10065,9 @@
       <c r="I283" t="n">
         <v>1.918</v>
       </c>
-      <c r="J283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9792,7 +10106,9 @@
       <c r="I284" t="n">
         <v>1.917</v>
       </c>
-      <c r="J284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9831,7 +10147,9 @@
       <c r="I285" t="n">
         <v>1.915</v>
       </c>
-      <c r="J285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K285" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9870,7 +10188,9 @@
       <c r="I286" t="n">
         <v>1.916</v>
       </c>
-      <c r="J286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K286" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9909,7 +10229,9 @@
       <c r="I287" t="n">
         <v>1.917</v>
       </c>
-      <c r="J287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9948,7 +10270,9 @@
       <c r="I288" t="n">
         <v>1.917</v>
       </c>
-      <c r="J288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K288" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9987,7 +10311,9 @@
       <c r="I289" t="n">
         <v>1.915</v>
       </c>
-      <c r="J289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K289" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10026,7 +10352,9 @@
       <c r="I290" t="n">
         <v>1.915</v>
       </c>
-      <c r="J290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K290" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10065,7 +10393,9 @@
       <c r="I291" t="n">
         <v>1.916</v>
       </c>
-      <c r="J291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10104,7 +10434,9 @@
       <c r="I292" t="n">
         <v>1.915</v>
       </c>
-      <c r="J292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10143,7 +10475,9 @@
       <c r="I293" t="n">
         <v>1.916</v>
       </c>
-      <c r="J293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10182,7 +10516,9 @@
       <c r="I294" t="n">
         <v>1.917</v>
       </c>
-      <c r="J294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10221,7 +10557,9 @@
       <c r="I295" t="n">
         <v>1.916</v>
       </c>
-      <c r="J295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10260,7 +10598,9 @@
       <c r="I296" t="n">
         <v>1.917</v>
       </c>
-      <c r="J296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10299,7 +10639,9 @@
       <c r="I297" t="n">
         <v>1.915</v>
       </c>
-      <c r="J297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10338,7 +10680,9 @@
       <c r="I298" t="n">
         <v>1.915</v>
       </c>
-      <c r="J298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10377,7 +10721,9 @@
       <c r="I299" t="n">
         <v>1.916</v>
       </c>
-      <c r="J299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K299" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10416,7 +10762,9 @@
       <c r="I300" t="n">
         <v>1.917</v>
       </c>
-      <c r="J300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K300" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10455,7 +10803,9 @@
       <c r="I301" t="n">
         <v>1.916</v>
       </c>
-      <c r="J301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10494,7 +10844,9 @@
       <c r="I302" t="n">
         <v>1.916</v>
       </c>
-      <c r="J302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K302" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10533,7 +10885,9 @@
       <c r="I303" t="n">
         <v>1.915</v>
       </c>
-      <c r="J303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10572,7 +10926,9 @@
       <c r="I304" t="n">
         <v>1.916</v>
       </c>
-      <c r="J304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K304" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10611,7 +10967,9 @@
       <c r="I305" t="n">
         <v>1.915</v>
       </c>
-      <c r="J305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K305" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10650,7 +11008,9 @@
       <c r="I306" t="n">
         <v>1.916</v>
       </c>
-      <c r="J306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K306" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10689,7 +11049,9 @@
       <c r="I307" t="n">
         <v>1.917</v>
       </c>
-      <c r="J307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K307" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10728,7 +11090,9 @@
       <c r="I308" t="n">
         <v>1.916</v>
       </c>
-      <c r="J308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K308" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10767,7 +11131,9 @@
       <c r="I309" t="n">
         <v>1.915</v>
       </c>
-      <c r="J309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K309" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10806,7 +11172,9 @@
       <c r="I310" t="n">
         <v>1.915</v>
       </c>
-      <c r="J310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K310" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10845,7 +11213,9 @@
       <c r="I311" t="n">
         <v>1.918</v>
       </c>
-      <c r="J311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K311" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10884,7 +11254,9 @@
       <c r="I312" t="n">
         <v>1.915</v>
       </c>
-      <c r="J312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K312" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10923,7 +11295,9 @@
       <c r="I313" t="n">
         <v>1.917</v>
       </c>
-      <c r="J313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K313" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10962,7 +11336,9 @@
       <c r="I314" t="n">
         <v>1.917</v>
       </c>
-      <c r="J314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K314" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11001,7 +11377,9 @@
       <c r="I315" t="n">
         <v>1.915</v>
       </c>
-      <c r="J315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K315" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11040,7 +11418,9 @@
       <c r="I316" t="n">
         <v>1.915</v>
       </c>
-      <c r="J316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K316" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11079,7 +11459,9 @@
       <c r="I317" t="n">
         <v>1.917</v>
       </c>
-      <c r="J317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K317" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11118,7 +11500,9 @@
       <c r="I318" t="n">
         <v>1.917</v>
       </c>
-      <c r="J318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K318" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11157,7 +11541,9 @@
       <c r="I319" t="n">
         <v>1.916</v>
       </c>
-      <c r="J319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K319" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11196,7 +11582,9 @@
       <c r="I320" t="n">
         <v>1.917</v>
       </c>
-      <c r="J320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K320" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11235,7 +11623,9 @@
       <c r="I321" t="n">
         <v>1.917</v>
       </c>
-      <c r="J321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K321" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11274,7 +11664,9 @@
       <c r="I322" t="n">
         <v>1.916</v>
       </c>
-      <c r="J322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K322" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11313,7 +11705,9 @@
       <c r="I323" t="n">
         <v>1.916</v>
       </c>
-      <c r="J323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K323" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11352,7 +11746,9 @@
       <c r="I324" t="n">
         <v>1.915</v>
       </c>
-      <c r="J324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K324" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11391,7 +11787,9 @@
       <c r="I325" t="n">
         <v>1.917</v>
       </c>
-      <c r="J325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K325" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11430,7 +11828,9 @@
       <c r="I326" t="n">
         <v>1.915</v>
       </c>
-      <c r="J326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K326" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11469,7 +11869,9 @@
       <c r="I327" t="n">
         <v>1.917</v>
       </c>
-      <c r="J327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K327" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11508,7 +11910,9 @@
       <c r="I328" t="n">
         <v>1.916</v>
       </c>
-      <c r="J328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K328" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11547,7 +11951,9 @@
       <c r="I329" t="n">
         <v>1.917</v>
       </c>
-      <c r="J329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K329" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11586,7 +11992,9 @@
       <c r="I330" t="n">
         <v>1.917</v>
       </c>
-      <c r="J330" t="inlineStr"/>
+      <c r="J330" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K330" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11625,7 +12033,9 @@
       <c r="I331" t="n">
         <v>1.918</v>
       </c>
-      <c r="J331" t="inlineStr"/>
+      <c r="J331" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K331" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11664,7 +12074,9 @@
       <c r="I332" t="n">
         <v>1.915</v>
       </c>
-      <c r="J332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K332" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11703,7 +12115,9 @@
       <c r="I333" t="n">
         <v>1.917</v>
       </c>
-      <c r="J333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K333" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11742,7 +12156,9 @@
       <c r="I334" t="n">
         <v>1.917</v>
       </c>
-      <c r="J334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K334" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11781,7 +12197,9 @@
       <c r="I335" t="n">
         <v>1.917</v>
       </c>
-      <c r="J335" t="inlineStr"/>
+      <c r="J335" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K335" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11820,7 +12238,9 @@
       <c r="I336" t="n">
         <v>1.918</v>
       </c>
-      <c r="J336" t="inlineStr"/>
+      <c r="J336" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K336" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11859,7 +12279,9 @@
       <c r="I337" t="n">
         <v>1.918</v>
       </c>
-      <c r="J337" t="inlineStr"/>
+      <c r="J337" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K337" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11898,7 +12320,9 @@
       <c r="I338" t="n">
         <v>1.918</v>
       </c>
-      <c r="J338" t="inlineStr"/>
+      <c r="J338" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K338" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11937,7 +12361,9 @@
       <c r="I339" t="n">
         <v>1.918</v>
       </c>
-      <c r="J339" t="inlineStr"/>
+      <c r="J339" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K339" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11976,7 +12402,9 @@
       <c r="I340" t="n">
         <v>1.918</v>
       </c>
-      <c r="J340" t="inlineStr"/>
+      <c r="J340" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K340" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12015,7 +12443,9 @@
       <c r="I341" t="n">
         <v>1.92</v>
       </c>
-      <c r="J341" t="inlineStr"/>
+      <c r="J341" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K341" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12049,10 +12479,14 @@
         <v>-659148.1405135415</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
-      </c>
-      <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I342" t="n">
+        <v>1.919</v>
+      </c>
+      <c r="J342" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K342" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12086,10 +12520,14 @@
         <v>-659148.1405135415</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
-      </c>
-      <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I343" t="n">
+        <v>1.918</v>
+      </c>
+      <c r="J343" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K343" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12128,7 +12566,9 @@
       <c r="I344" t="n">
         <v>1.918</v>
       </c>
-      <c r="J344" t="inlineStr"/>
+      <c r="J344" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K344" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12167,7 +12607,9 @@
       <c r="I345" t="n">
         <v>1.919</v>
       </c>
-      <c r="J345" t="inlineStr"/>
+      <c r="J345" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K345" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12201,10 +12643,14 @@
         <v>-601490.1184135415</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
-      </c>
-      <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I346" t="n">
+        <v>1.918</v>
+      </c>
+      <c r="J346" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K346" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12238,10 +12684,14 @@
         <v>-601490.1184135415</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
-      </c>
-      <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I347" t="n">
+        <v>1.919</v>
+      </c>
+      <c r="J347" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K347" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12275,10 +12725,14 @@
         <v>-636774.3761135414</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
-      </c>
-      <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I348" t="n">
+        <v>1.919</v>
+      </c>
+      <c r="J348" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K348" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12317,7 +12771,9 @@
       <c r="I349" t="n">
         <v>1.918</v>
       </c>
-      <c r="J349" t="inlineStr"/>
+      <c r="J349" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K349" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12356,7 +12812,9 @@
       <c r="I350" t="n">
         <v>1.918</v>
       </c>
-      <c r="J350" t="inlineStr"/>
+      <c r="J350" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K350" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12390,10 +12848,14 @@
         <v>-613568.3527135414</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
-      </c>
-      <c r="I351" t="inlineStr"/>
-      <c r="J351" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I351" t="n">
+        <v>1.919</v>
+      </c>
+      <c r="J351" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K351" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12427,10 +12889,14 @@
         <v>-613568.3527135414</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
-      </c>
-      <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I352" t="n">
+        <v>1.918</v>
+      </c>
+      <c r="J352" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K352" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12464,10 +12930,14 @@
         <v>-565938.5577135413</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
-      </c>
-      <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I353" t="n">
+        <v>1.918</v>
+      </c>
+      <c r="J353" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K353" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12501,10 +12971,14 @@
         <v>-565938.5577135413</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
-      </c>
-      <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I354" t="n">
+        <v>1.919</v>
+      </c>
+      <c r="J354" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K354" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12538,10 +13012,14 @@
         <v>-594997.3203135413</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
-      </c>
-      <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I355" t="n">
+        <v>1.919</v>
+      </c>
+      <c r="J355" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K355" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12575,10 +13053,14 @@
         <v>-594997.3203135413</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
-      </c>
-      <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I356" t="n">
+        <v>1.918</v>
+      </c>
+      <c r="J356" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K356" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12612,10 +13094,14 @@
         <v>-559063.4074135413</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
-      </c>
-      <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I357" t="n">
+        <v>1.918</v>
+      </c>
+      <c r="J357" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K357" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12649,10 +13135,14 @@
         <v>-603322.6399135414</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
-      </c>
-      <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I358" t="n">
+        <v>1.919</v>
+      </c>
+      <c r="J358" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K358" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12686,10 +13176,14 @@
         <v>-603322.6399135414</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
-      </c>
-      <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I359" t="n">
+        <v>1.918</v>
+      </c>
+      <c r="J359" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K359" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12723,10 +13217,14 @@
         <v>-603322.6399135414</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
-      </c>
-      <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I360" t="n">
+        <v>1.918</v>
+      </c>
+      <c r="J360" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K360" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12760,10 +13258,14 @@
         <v>-603322.6399135414</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
-      </c>
-      <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I361" t="n">
+        <v>1.918</v>
+      </c>
+      <c r="J361" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K361" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12797,10 +13299,14 @@
         <v>-561429.7126135414</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
-      </c>
-      <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I362" t="n">
+        <v>1.918</v>
+      </c>
+      <c r="J362" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K362" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12834,10 +13340,14 @@
         <v>-561429.7126135414</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
-      </c>
-      <c r="I363" t="inlineStr"/>
-      <c r="J363" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I363" t="n">
+        <v>1.919</v>
+      </c>
+      <c r="J363" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K363" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12871,10 +13381,14 @@
         <v>-561429.7126135414</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
-      </c>
-      <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I364" t="n">
+        <v>1.919</v>
+      </c>
+      <c r="J364" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K364" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12908,10 +13422,14 @@
         <v>-622344.7237135414</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
-      </c>
-      <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I365" t="n">
+        <v>1.919</v>
+      </c>
+      <c r="J365" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K365" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12945,10 +13463,14 @@
         <v>-622344.7237135414</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
-      </c>
-      <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I366" t="n">
+        <v>1.918</v>
+      </c>
+      <c r="J366" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K366" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12982,10 +13504,14 @@
         <v>-622344.7237135414</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
-      </c>
-      <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I367" t="n">
+        <v>1.918</v>
+      </c>
+      <c r="J367" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K367" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13019,10 +13545,14 @@
         <v>-622344.7237135414</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
-      </c>
-      <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I368" t="n">
+        <v>1.918</v>
+      </c>
+      <c r="J368" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K368" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13056,10 +13586,14 @@
         <v>-622344.7237135414</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
-      </c>
-      <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I369" t="n">
+        <v>1.918</v>
+      </c>
+      <c r="J369" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K369" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13093,10 +13627,14 @@
         <v>-583576.1038135414</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
-      </c>
-      <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I370" t="n">
+        <v>1.918</v>
+      </c>
+      <c r="J370" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K370" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13130,10 +13668,14 @@
         <v>-583576.1038135414</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
-      </c>
-      <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I371" t="n">
+        <v>1.919</v>
+      </c>
+      <c r="J371" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K371" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13167,10 +13709,14 @@
         <v>-619945.0316135413</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
-      </c>
-      <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I372" t="n">
+        <v>1.919</v>
+      </c>
+      <c r="J372" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K372" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13204,10 +13750,14 @@
         <v>-620575.0316135413</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
-      </c>
-      <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I373" t="n">
+        <v>1.918</v>
+      </c>
+      <c r="J373" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K373" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13241,10 +13791,14 @@
         <v>-736170.3358135413</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
-      </c>
-      <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I374" t="n">
+        <v>1.917</v>
+      </c>
+      <c r="J374" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K374" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13278,10 +13832,14 @@
         <v>-767273.9135135413</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
-      </c>
-      <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I375" t="n">
+        <v>1.915</v>
+      </c>
+      <c r="J375" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K375" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13315,10 +13873,14 @@
         <v>-848932.4512135413</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
-      </c>
-      <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I376" t="n">
+        <v>1.914</v>
+      </c>
+      <c r="J376" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K376" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13357,7 +13919,9 @@
       <c r="I377" t="n">
         <v>1.912</v>
       </c>
-      <c r="J377" t="inlineStr"/>
+      <c r="J377" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K377" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13396,7 +13960,9 @@
       <c r="I378" t="n">
         <v>1.912</v>
       </c>
-      <c r="J378" t="inlineStr"/>
+      <c r="J378" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K378" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13435,7 +14001,9 @@
       <c r="I379" t="n">
         <v>1.917</v>
       </c>
-      <c r="J379" t="inlineStr"/>
+      <c r="J379" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K379" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13469,10 +14037,14 @@
         <v>-751407.1800135414</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
-      </c>
-      <c r="I380" t="inlineStr"/>
-      <c r="J380" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I380" t="n">
+        <v>1.918</v>
+      </c>
+      <c r="J380" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K380" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13506,10 +14078,14 @@
         <v>-709320.6163135413</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
-      </c>
-      <c r="I381" t="inlineStr"/>
-      <c r="J381" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I381" t="n">
+        <v>1.915</v>
+      </c>
+      <c r="J381" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K381" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13543,10 +14119,14 @@
         <v>-826497.0296135413</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
-      </c>
-      <c r="I382" t="inlineStr"/>
-      <c r="J382" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I382" t="n">
+        <v>1.918</v>
+      </c>
+      <c r="J382" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K382" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13580,10 +14160,14 @@
         <v>-812608.2126135413</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
-      </c>
-      <c r="I383" t="inlineStr"/>
-      <c r="J383" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I383" t="n">
+        <v>1.913</v>
+      </c>
+      <c r="J383" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K383" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13617,10 +14201,14 @@
         <v>-877185.2472135413</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
-      </c>
-      <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I384" t="n">
+        <v>1.923</v>
+      </c>
+      <c r="J384" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K384" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13654,10 +14242,14 @@
         <v>-827348.9600135413</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
-      </c>
-      <c r="I385" t="inlineStr"/>
-      <c r="J385" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I385" t="n">
+        <v>1.916</v>
+      </c>
+      <c r="J385" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K385" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13691,10 +14283,14 @@
         <v>-866583.0743135413</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
-      </c>
-      <c r="I386" t="inlineStr"/>
-      <c r="J386" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I386" t="n">
+        <v>1.923</v>
+      </c>
+      <c r="J386" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K386" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13728,10 +14324,14 @@
         <v>-883205.2550135413</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
-      </c>
-      <c r="I387" t="inlineStr"/>
-      <c r="J387" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I387" t="n">
+        <v>1.918</v>
+      </c>
+      <c r="J387" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K387" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13765,10 +14365,14 @@
         <v>-829583.5666135413</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
-      </c>
-      <c r="I388" t="inlineStr"/>
-      <c r="J388" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I388" t="n">
+        <v>1.913</v>
+      </c>
+      <c r="J388" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K388" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13802,10 +14406,14 @@
         <v>-860547.9496135414</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
-      </c>
-      <c r="I389" t="inlineStr"/>
-      <c r="J389" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I389" t="n">
+        <v>1.918</v>
+      </c>
+      <c r="J389" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K389" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13839,10 +14447,14 @@
         <v>-860547.9496135414</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
-      </c>
-      <c r="I390" t="inlineStr"/>
-      <c r="J390" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I390" t="n">
+        <v>1.917</v>
+      </c>
+      <c r="J390" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K390" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13876,10 +14488,14 @@
         <v>-901875.2707135414</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
-      </c>
-      <c r="I391" t="inlineStr"/>
-      <c r="J391" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I391" t="n">
+        <v>1.917</v>
+      </c>
+      <c r="J391" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K391" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13913,10 +14529,14 @@
         <v>-867716.6923135414</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
-      </c>
-      <c r="I392" t="inlineStr"/>
-      <c r="J392" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I392" t="n">
+        <v>1.915</v>
+      </c>
+      <c r="J392" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K392" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13950,10 +14570,14 @@
         <v>-886502.6817135414</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
-      </c>
-      <c r="I393" t="inlineStr"/>
-      <c r="J393" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I393" t="n">
+        <v>1.917</v>
+      </c>
+      <c r="J393" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K393" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13987,10 +14611,14 @@
         <v>-836526.4832135413</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
-      </c>
-      <c r="I394" t="inlineStr"/>
-      <c r="J394" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I394" t="n">
+        <v>1.916</v>
+      </c>
+      <c r="J394" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K394" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14024,10 +14652,14 @@
         <v>-790163.1282135413</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
-      </c>
-      <c r="I395" t="inlineStr"/>
-      <c r="J395" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I395" t="n">
+        <v>1.923</v>
+      </c>
+      <c r="J395" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K395" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14061,10 +14693,14 @@
         <v>-849947.4093135414</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
-      </c>
-      <c r="I396" t="inlineStr"/>
-      <c r="J396" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I396" t="n">
+        <v>1.929</v>
+      </c>
+      <c r="J396" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K396" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14098,10 +14734,14 @@
         <v>-805032.6331135414</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
-      </c>
-      <c r="I397" t="inlineStr"/>
-      <c r="J397" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I397" t="n">
+        <v>1.914</v>
+      </c>
+      <c r="J397" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K397" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14135,10 +14775,14 @@
         <v>-847027.4560135414</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
-      </c>
-      <c r="I398" t="inlineStr"/>
-      <c r="J398" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I398" t="n">
+        <v>1.919</v>
+      </c>
+      <c r="J398" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K398" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14172,10 +14816,14 @@
         <v>-818499.4583135415</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
-      </c>
-      <c r="I399" t="inlineStr"/>
-      <c r="J399" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I399" t="n">
+        <v>1.913</v>
+      </c>
+      <c r="J399" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K399" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14209,10 +14857,14 @@
         <v>-777810.5734135415</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
-      </c>
-      <c r="I400" t="inlineStr"/>
-      <c r="J400" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I400" t="n">
+        <v>1.929</v>
+      </c>
+      <c r="J400" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K400" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14249,7 +14901,9 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="inlineStr"/>
+      <c r="J401" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K401" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14283,10 +14937,14 @@
         <v>-871849.4691135415</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
-      </c>
-      <c r="I402" t="inlineStr"/>
-      <c r="J402" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I402" t="n">
+        <v>1.916</v>
+      </c>
+      <c r="J402" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K402" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14323,7 +14981,9 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="inlineStr"/>
+      <c r="J403" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K403" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14360,7 +15020,9 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="inlineStr"/>
+      <c r="J404" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K404" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14397,7 +15059,9 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="inlineStr"/>
+      <c r="J405" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K405" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14434,7 +15098,9 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="inlineStr"/>
+      <c r="J406" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K406" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14471,7 +15137,9 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="inlineStr"/>
+      <c r="J407" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K407" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14508,7 +15176,9 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="inlineStr"/>
+      <c r="J408" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K408" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14545,7 +15215,9 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="inlineStr"/>
+      <c r="J409" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K409" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14582,7 +15254,9 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="inlineStr"/>
+      <c r="J410" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K410" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14619,7 +15293,9 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="inlineStr"/>
+      <c r="J411" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K411" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14656,7 +15332,9 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="inlineStr"/>
+      <c r="J412" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K412" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14693,7 +15371,9 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="inlineStr"/>
+      <c r="J413" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K413" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14730,7 +15410,9 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="inlineStr"/>
+      <c r="J414" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K414" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14764,10 +15446,14 @@
         <v>-789465.9758135416</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
-      </c>
-      <c r="I415" t="inlineStr"/>
-      <c r="J415" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I415" t="n">
+        <v>1.918</v>
+      </c>
+      <c r="J415" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K415" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14804,7 +15490,9 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="inlineStr"/>
+      <c r="J416" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K416" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14838,10 +15526,14 @@
         <v>-734227.4750135415</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
-      </c>
-      <c r="I417" t="inlineStr"/>
-      <c r="J417" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I417" t="n">
+        <v>1.914</v>
+      </c>
+      <c r="J417" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K417" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14878,7 +15570,9 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="inlineStr"/>
+      <c r="J418" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K418" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14915,7 +15609,9 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="inlineStr"/>
+      <c r="J419" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K419" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14952,7 +15648,9 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="inlineStr"/>
+      <c r="J420" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K420" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14989,7 +15687,9 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="inlineStr"/>
+      <c r="J421" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K421" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15026,7 +15726,9 @@
         <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="inlineStr"/>
+      <c r="J422" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K422" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15063,7 +15765,9 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="inlineStr"/>
+      <c r="J423" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K423" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15100,7 +15804,9 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="inlineStr"/>
+      <c r="J424" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K424" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15137,7 +15843,9 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="inlineStr"/>
+      <c r="J425" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K425" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15174,7 +15882,9 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="inlineStr"/>
+      <c r="J426" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K426" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15211,7 +15921,9 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="inlineStr"/>
+      <c r="J427" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K427" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15248,7 +15960,9 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="inlineStr"/>
+      <c r="J428" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K428" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15285,7 +15999,9 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="inlineStr"/>
+      <c r="J429" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K429" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15322,7 +16038,9 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="inlineStr"/>
+      <c r="J430" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K430" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15359,7 +16077,9 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="inlineStr"/>
+      <c r="J431" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K431" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15396,7 +16116,9 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="inlineStr"/>
+      <c r="J432" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K432" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15433,7 +16155,9 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="inlineStr"/>
+      <c r="J433" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K433" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15470,7 +16194,9 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="inlineStr"/>
+      <c r="J434" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K434" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15507,7 +16233,9 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="inlineStr"/>
+      <c r="J435" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K435" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15544,7 +16272,9 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="inlineStr"/>
+      <c r="J436" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K436" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15581,7 +16311,9 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="inlineStr"/>
+      <c r="J437" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K437" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15618,7 +16350,9 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="inlineStr"/>
+      <c r="J438" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K438" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15655,7 +16389,9 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="inlineStr"/>
+      <c r="J439" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K439" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15692,7 +16428,9 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="inlineStr"/>
+      <c r="J440" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K440" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15729,7 +16467,9 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="inlineStr"/>
+      <c r="J441" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K441" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15766,7 +16506,9 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="inlineStr"/>
+      <c r="J442" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K442" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15803,7 +16545,9 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="inlineStr"/>
+      <c r="J443" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K443" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15840,7 +16584,9 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="inlineStr"/>
+      <c r="J444" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K444" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15877,7 +16623,9 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="inlineStr"/>
+      <c r="J445" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K445" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15914,7 +16662,9 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="inlineStr"/>
+      <c r="J446" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K446" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15951,7 +16701,9 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="inlineStr"/>
+      <c r="J447" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K447" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15988,7 +16740,9 @@
         <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="inlineStr"/>
+      <c r="J448" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K448" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16025,7 +16779,9 @@
         <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="inlineStr"/>
+      <c r="J449" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K449" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16062,7 +16818,9 @@
         <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="inlineStr"/>
+      <c r="J450" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K450" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16099,7 +16857,9 @@
         <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="inlineStr"/>
+      <c r="J451" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K451" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16136,7 +16896,9 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="inlineStr"/>
+      <c r="J452" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K452" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16173,7 +16935,9 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="inlineStr"/>
+      <c r="J453" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K453" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16210,7 +16974,9 @@
         <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="inlineStr"/>
+      <c r="J454" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K454" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16247,7 +17013,9 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="inlineStr"/>
+      <c r="J455" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K455" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16284,7 +17052,9 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="inlineStr"/>
+      <c r="J456" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K456" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16321,7 +17091,9 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="inlineStr"/>
+      <c r="J457" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K457" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16358,7 +17130,9 @@
         <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="inlineStr"/>
+      <c r="J458" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K458" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16395,7 +17169,9 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="inlineStr"/>
+      <c r="J459" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K459" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16432,7 +17208,9 @@
         <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="inlineStr"/>
+      <c r="J460" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K460" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16469,7 +17247,9 @@
         <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="inlineStr"/>
+      <c r="J461" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K461" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16506,7 +17286,9 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="inlineStr"/>
+      <c r="J462" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K462" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16543,7 +17325,9 @@
         <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="inlineStr"/>
+      <c r="J463" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K463" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16580,7 +17364,9 @@
         <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="inlineStr"/>
+      <c r="J464" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K464" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16617,7 +17403,9 @@
         <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="inlineStr"/>
+      <c r="J465" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K465" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16654,7 +17442,9 @@
         <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="inlineStr"/>
+      <c r="J466" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K466" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16691,7 +17481,9 @@
         <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="inlineStr"/>
+      <c r="J467" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K467" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16728,7 +17520,9 @@
         <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="inlineStr"/>
+      <c r="J468" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K468" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16765,7 +17559,9 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="inlineStr"/>
+      <c r="J469" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K469" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16802,7 +17598,9 @@
         <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="inlineStr"/>
+      <c r="J470" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K470" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16839,7 +17637,9 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="inlineStr"/>
+      <c r="J471" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K471" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16876,7 +17676,9 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="inlineStr"/>
+      <c r="J472" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K472" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16913,7 +17715,9 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="inlineStr"/>
+      <c r="J473" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K473" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16950,7 +17754,9 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="inlineStr"/>
+      <c r="J474" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K474" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16987,7 +17793,9 @@
         <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="inlineStr"/>
+      <c r="J475" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K475" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17024,7 +17832,9 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="inlineStr"/>
+      <c r="J476" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K476" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17061,7 +17871,9 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="inlineStr"/>
+      <c r="J477" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K477" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17098,7 +17910,9 @@
         <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="inlineStr"/>
+      <c r="J478" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K478" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17135,7 +17949,9 @@
         <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="inlineStr"/>
+      <c r="J479" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K479" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17172,7 +17988,9 @@
         <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="inlineStr"/>
+      <c r="J480" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K480" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17209,7 +18027,9 @@
         <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="inlineStr"/>
+      <c r="J481" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K481" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17246,7 +18066,9 @@
         <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="inlineStr"/>
+      <c r="J482" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K482" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17283,7 +18105,9 @@
         <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="inlineStr"/>
+      <c r="J483" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K483" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17320,7 +18144,9 @@
         <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="inlineStr"/>
+      <c r="J484" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K484" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17357,7 +18183,9 @@
         <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="inlineStr"/>
+      <c r="J485" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K485" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17394,7 +18222,9 @@
         <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="inlineStr"/>
+      <c r="J486" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K486" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17431,7 +18261,9 @@
         <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="inlineStr"/>
+      <c r="J487" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K487" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17468,7 +18300,9 @@
         <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="inlineStr"/>
+      <c r="J488" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K488" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17505,7 +18339,9 @@
         <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="inlineStr"/>
+      <c r="J489" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K489" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17542,7 +18378,9 @@
         <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="inlineStr"/>
+      <c r="J490" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K490" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17579,7 +18417,9 @@
         <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="inlineStr"/>
+      <c r="J491" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K491" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17616,7 +18456,9 @@
         <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="inlineStr"/>
+      <c r="J492" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K492" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17653,7 +18495,9 @@
         <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
-      <c r="J493" t="inlineStr"/>
+      <c r="J493" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K493" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17690,7 +18534,9 @@
         <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
-      <c r="J494" t="inlineStr"/>
+      <c r="J494" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K494" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17727,7 +18573,9 @@
         <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
-      <c r="J495" t="inlineStr"/>
+      <c r="J495" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K495" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17764,7 +18612,9 @@
         <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
-      <c r="J496" t="inlineStr"/>
+      <c r="J496" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K496" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17801,7 +18651,9 @@
         <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="inlineStr"/>
+      <c r="J497" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K497" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17838,7 +18690,9 @@
         <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
-      <c r="J498" t="inlineStr"/>
+      <c r="J498" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K498" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17875,7 +18729,9 @@
         <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
-      <c r="J499" t="inlineStr"/>
+      <c r="J499" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K499" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17912,7 +18768,9 @@
         <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
-      <c r="J500" t="inlineStr"/>
+      <c r="J500" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K500" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17949,7 +18807,9 @@
         <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
-      <c r="J501" t="inlineStr"/>
+      <c r="J501" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K501" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17986,7 +18846,9 @@
         <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
-      <c r="J502" t="inlineStr"/>
+      <c r="J502" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K502" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18023,7 +18885,9 @@
         <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
-      <c r="J503" t="inlineStr"/>
+      <c r="J503" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K503" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18060,7 +18924,9 @@
         <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
-      <c r="J504" t="inlineStr"/>
+      <c r="J504" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K504" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18097,7 +18963,9 @@
         <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
-      <c r="J505" t="inlineStr"/>
+      <c r="J505" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K505" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18134,7 +19002,9 @@
         <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
-      <c r="J506" t="inlineStr"/>
+      <c r="J506" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K506" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18171,7 +19041,9 @@
         <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
-      <c r="J507" t="inlineStr"/>
+      <c r="J507" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K507" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18208,7 +19080,9 @@
         <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
-      <c r="J508" t="inlineStr"/>
+      <c r="J508" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K508" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18245,7 +19119,9 @@
         <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
-      <c r="J509" t="inlineStr"/>
+      <c r="J509" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K509" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18282,7 +19158,9 @@
         <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
-      <c r="J510" t="inlineStr"/>
+      <c r="J510" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K510" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18319,7 +19197,9 @@
         <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
-      <c r="J511" t="inlineStr"/>
+      <c r="J511" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K511" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18356,7 +19236,9 @@
         <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
-      <c r="J512" t="inlineStr"/>
+      <c r="J512" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K512" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18393,7 +19275,9 @@
         <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
-      <c r="J513" t="inlineStr"/>
+      <c r="J513" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K513" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18430,7 +19314,9 @@
         <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
-      <c r="J514" t="inlineStr"/>
+      <c r="J514" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K514" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18467,7 +19353,9 @@
         <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
-      <c r="J515" t="inlineStr"/>
+      <c r="J515" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K515" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18504,7 +19392,9 @@
         <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
-      <c r="J516" t="inlineStr"/>
+      <c r="J516" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K516" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18541,7 +19431,9 @@
         <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
-      <c r="J517" t="inlineStr"/>
+      <c r="J517" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K517" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18578,7 +19470,9 @@
         <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
-      <c r="J518" t="inlineStr"/>
+      <c r="J518" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K518" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18615,7 +19509,9 @@
         <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
-      <c r="J519" t="inlineStr"/>
+      <c r="J519" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K519" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18652,7 +19548,9 @@
         <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
-      <c r="J520" t="inlineStr"/>
+      <c r="J520" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K520" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18689,7 +19587,9 @@
         <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
-      <c r="J521" t="inlineStr"/>
+      <c r="J521" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K521" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18726,7 +19626,9 @@
         <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
-      <c r="J522" t="inlineStr"/>
+      <c r="J522" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K522" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18763,7 +19665,9 @@
         <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
-      <c r="J523" t="inlineStr"/>
+      <c r="J523" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K523" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18800,7 +19704,9 @@
         <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
-      <c r="J524" t="inlineStr"/>
+      <c r="J524" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K524" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18837,7 +19743,9 @@
         <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
-      <c r="J525" t="inlineStr"/>
+      <c r="J525" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K525" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18874,7 +19782,9 @@
         <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
-      <c r="J526" t="inlineStr"/>
+      <c r="J526" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K526" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18911,7 +19821,9 @@
         <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
-      <c r="J527" t="inlineStr"/>
+      <c r="J527" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K527" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18948,7 +19860,9 @@
         <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
-      <c r="J528" t="inlineStr"/>
+      <c r="J528" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K528" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18985,7 +19899,9 @@
         <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
-      <c r="J529" t="inlineStr"/>
+      <c r="J529" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K529" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19022,7 +19938,9 @@
         <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
-      <c r="J530" t="inlineStr"/>
+      <c r="J530" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K530" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19059,7 +19977,9 @@
         <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
-      <c r="J531" t="inlineStr"/>
+      <c r="J531" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K531" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19096,7 +20016,9 @@
         <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
-      <c r="J532" t="inlineStr"/>
+      <c r="J532" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K532" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19133,7 +20055,9 @@
         <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
-      <c r="J533" t="inlineStr"/>
+      <c r="J533" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K533" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19170,7 +20094,9 @@
         <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
-      <c r="J534" t="inlineStr"/>
+      <c r="J534" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K534" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19207,7 +20133,9 @@
         <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
-      <c r="J535" t="inlineStr"/>
+      <c r="J535" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K535" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19244,7 +20172,9 @@
         <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
-      <c r="J536" t="inlineStr"/>
+      <c r="J536" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K536" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19281,7 +20211,9 @@
         <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
-      <c r="J537" t="inlineStr"/>
+      <c r="J537" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K537" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19318,7 +20250,9 @@
         <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
-      <c r="J538" t="inlineStr"/>
+      <c r="J538" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K538" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19355,7 +20289,9 @@
         <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
-      <c r="J539" t="inlineStr"/>
+      <c r="J539" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K539" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19392,7 +20328,9 @@
         <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
-      <c r="J540" t="inlineStr"/>
+      <c r="J540" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K540" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19429,7 +20367,9 @@
         <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
-      <c r="J541" t="inlineStr"/>
+      <c r="J541" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K541" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19466,7 +20406,9 @@
         <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
-      <c r="J542" t="inlineStr"/>
+      <c r="J542" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K542" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19503,7 +20445,9 @@
         <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
-      <c r="J543" t="inlineStr"/>
+      <c r="J543" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K543" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19540,7 +20484,9 @@
         <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
-      <c r="J544" t="inlineStr"/>
+      <c r="J544" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K544" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19577,7 +20523,9 @@
         <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
-      <c r="J545" t="inlineStr"/>
+      <c r="J545" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K545" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19614,7 +20562,9 @@
         <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
-      <c r="J546" t="inlineStr"/>
+      <c r="J546" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K546" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19651,7 +20601,9 @@
         <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
-      <c r="J547" t="inlineStr"/>
+      <c r="J547" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K547" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19688,7 +20640,9 @@
         <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
-      <c r="J548" t="inlineStr"/>
+      <c r="J548" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K548" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19725,7 +20679,9 @@
         <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
-      <c r="J549" t="inlineStr"/>
+      <c r="J549" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K549" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19762,7 +20718,9 @@
         <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
-      <c r="J550" t="inlineStr"/>
+      <c r="J550" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K550" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19799,7 +20757,9 @@
         <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
-      <c r="J551" t="inlineStr"/>
+      <c r="J551" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K551" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19836,7 +20796,9 @@
         <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
-      <c r="J552" t="inlineStr"/>
+      <c r="J552" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K552" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19873,7 +20835,9 @@
         <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
-      <c r="J553" t="inlineStr"/>
+      <c r="J553" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K553" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19910,7 +20874,9 @@
         <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
-      <c r="J554" t="inlineStr"/>
+      <c r="J554" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K554" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19947,7 +20913,9 @@
         <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
-      <c r="J555" t="inlineStr"/>
+      <c r="J555" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K555" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19984,7 +20952,9 @@
         <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
-      <c r="J556" t="inlineStr"/>
+      <c r="J556" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K556" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20021,7 +20991,9 @@
         <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
-      <c r="J557" t="inlineStr"/>
+      <c r="J557" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K557" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20058,7 +21030,9 @@
         <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
-      <c r="J558" t="inlineStr"/>
+      <c r="J558" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K558" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20095,7 +21069,9 @@
         <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
-      <c r="J559" t="inlineStr"/>
+      <c r="J559" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K559" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20132,7 +21108,9 @@
         <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
-      <c r="J560" t="inlineStr"/>
+      <c r="J560" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K560" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20169,7 +21147,9 @@
         <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
-      <c r="J561" t="inlineStr"/>
+      <c r="J561" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K561" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20206,7 +21186,9 @@
         <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
-      <c r="J562" t="inlineStr"/>
+      <c r="J562" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K562" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20243,7 +21225,9 @@
         <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
-      <c r="J563" t="inlineStr"/>
+      <c r="J563" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K563" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20280,7 +21264,9 @@
         <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
-      <c r="J564" t="inlineStr"/>
+      <c r="J564" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K564" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20317,7 +21303,9 @@
         <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
-      <c r="J565" t="inlineStr"/>
+      <c r="J565" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K565" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20354,7 +21342,9 @@
         <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
-      <c r="J566" t="inlineStr"/>
+      <c r="J566" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K566" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20391,7 +21381,9 @@
         <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
-      <c r="J567" t="inlineStr"/>
+      <c r="J567" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K567" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20428,7 +21420,9 @@
         <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
-      <c r="J568" t="inlineStr"/>
+      <c r="J568" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K568" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20465,7 +21459,9 @@
         <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
-      <c r="J569" t="inlineStr"/>
+      <c r="J569" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K569" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20502,7 +21498,9 @@
         <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
-      <c r="J570" t="inlineStr"/>
+      <c r="J570" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K570" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20536,12 +21534,12 @@
         <v>-986879.7798135411</v>
       </c>
       <c r="H571" t="n">
-        <v>1</v>
-      </c>
-      <c r="I571" t="n">
-        <v>1.916</v>
-      </c>
-      <c r="J571" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I571" t="inlineStr"/>
+      <c r="J571" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K571" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20575,12 +21573,12 @@
         <v>-838206.7551135411</v>
       </c>
       <c r="H572" t="n">
-        <v>1</v>
-      </c>
-      <c r="I572" t="n">
-        <v>1.913</v>
-      </c>
-      <c r="J572" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I572" t="inlineStr"/>
+      <c r="J572" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K572" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20614,12 +21612,12 @@
         <v>-856274.5891135412</v>
       </c>
       <c r="H573" t="n">
-        <v>1</v>
-      </c>
-      <c r="I573" t="n">
-        <v>1.915</v>
-      </c>
-      <c r="J573" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I573" t="inlineStr"/>
+      <c r="J573" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K573" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20653,12 +21651,12 @@
         <v>-816478.5075135411</v>
       </c>
       <c r="H574" t="n">
-        <v>1</v>
-      </c>
-      <c r="I574" t="n">
-        <v>1.912</v>
-      </c>
-      <c r="J574" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I574" t="inlineStr"/>
+      <c r="J574" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K574" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20697,7 +21695,9 @@
       <c r="I575" t="n">
         <v>1.913</v>
       </c>
-      <c r="J575" t="inlineStr"/>
+      <c r="J575" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K575" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20736,7 +21736,9 @@
       <c r="I576" t="n">
         <v>1.914</v>
       </c>
-      <c r="J576" t="inlineStr"/>
+      <c r="J576" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K576" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20775,7 +21777,9 @@
       <c r="I577" t="n">
         <v>1.913</v>
       </c>
-      <c r="J577" t="inlineStr"/>
+      <c r="J577" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K577" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20814,7 +21818,9 @@
       <c r="I578" t="n">
         <v>1.912</v>
       </c>
-      <c r="J578" t="inlineStr"/>
+      <c r="J578" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K578" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20853,7 +21859,9 @@
       <c r="I579" t="n">
         <v>1.912</v>
       </c>
-      <c r="J579" t="inlineStr"/>
+      <c r="J579" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K579" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20892,7 +21900,9 @@
       <c r="I580" t="n">
         <v>1.915</v>
       </c>
-      <c r="J580" t="inlineStr"/>
+      <c r="J580" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K580" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20931,7 +21941,9 @@
       <c r="I581" t="n">
         <v>1.912</v>
       </c>
-      <c r="J581" t="inlineStr"/>
+      <c r="J581" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K581" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20970,7 +21982,9 @@
       <c r="I582" t="n">
         <v>1.915</v>
       </c>
-      <c r="J582" t="inlineStr"/>
+      <c r="J582" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K582" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21009,7 +22023,9 @@
       <c r="I583" t="n">
         <v>1.915</v>
       </c>
-      <c r="J583" t="inlineStr"/>
+      <c r="J583" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K583" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21048,7 +22064,9 @@
       <c r="I584" t="n">
         <v>1.914</v>
       </c>
-      <c r="J584" t="inlineStr"/>
+      <c r="J584" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K584" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21087,7 +22105,9 @@
       <c r="I585" t="n">
         <v>1.913</v>
       </c>
-      <c r="J585" t="inlineStr"/>
+      <c r="J585" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K585" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21126,7 +22146,9 @@
       <c r="I586" t="n">
         <v>1.913</v>
       </c>
-      <c r="J586" t="inlineStr"/>
+      <c r="J586" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K586" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21165,7 +22187,9 @@
       <c r="I587" t="n">
         <v>1.915</v>
       </c>
-      <c r="J587" t="inlineStr"/>
+      <c r="J587" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K587" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21204,7 +22228,9 @@
       <c r="I588" t="n">
         <v>1.914</v>
       </c>
-      <c r="J588" t="inlineStr"/>
+      <c r="J588" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K588" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21243,7 +22269,9 @@
       <c r="I589" t="n">
         <v>1.913</v>
       </c>
-      <c r="J589" t="inlineStr"/>
+      <c r="J589" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K589" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21282,7 +22310,9 @@
       <c r="I590" t="n">
         <v>1.915</v>
       </c>
-      <c r="J590" t="inlineStr"/>
+      <c r="J590" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K590" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21321,7 +22351,9 @@
       <c r="I591" t="n">
         <v>1.914</v>
       </c>
-      <c r="J591" t="inlineStr"/>
+      <c r="J591" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K591" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21360,7 +22392,9 @@
       <c r="I592" t="n">
         <v>1.913</v>
       </c>
-      <c r="J592" t="inlineStr"/>
+      <c r="J592" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K592" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21399,7 +22433,9 @@
       <c r="I593" t="n">
         <v>1.912</v>
       </c>
-      <c r="J593" t="inlineStr"/>
+      <c r="J593" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K593" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21433,10 +22469,14 @@
         <v>-1521845.175113541</v>
       </c>
       <c r="H594" t="n">
-        <v>0</v>
-      </c>
-      <c r="I594" t="inlineStr"/>
-      <c r="J594" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I594" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="J594" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K594" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21475,7 +22515,9 @@
       <c r="I595" t="n">
         <v>1.912</v>
       </c>
-      <c r="J595" t="inlineStr"/>
+      <c r="J595" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K595" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21514,7 +22556,9 @@
       <c r="I596" t="n">
         <v>1.911</v>
       </c>
-      <c r="J596" t="inlineStr"/>
+      <c r="J596" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K596" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21553,7 +22597,9 @@
       <c r="I597" t="n">
         <v>1.911</v>
       </c>
-      <c r="J597" t="inlineStr"/>
+      <c r="J597" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K597" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21592,7 +22638,9 @@
       <c r="I598" t="n">
         <v>1.912</v>
       </c>
-      <c r="J598" t="inlineStr"/>
+      <c r="J598" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K598" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21631,7 +22679,9 @@
       <c r="I599" t="n">
         <v>1.912</v>
       </c>
-      <c r="J599" t="inlineStr"/>
+      <c r="J599" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K599" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21670,7 +22720,9 @@
       <c r="I600" t="n">
         <v>1.911</v>
       </c>
-      <c r="J600" t="inlineStr"/>
+      <c r="J600" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K600" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21709,7 +22761,9 @@
       <c r="I601" t="n">
         <v>1.912</v>
       </c>
-      <c r="J601" t="inlineStr"/>
+      <c r="J601" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K601" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21748,7 +22802,9 @@
       <c r="I602" t="n">
         <v>1.913</v>
       </c>
-      <c r="J602" t="inlineStr"/>
+      <c r="J602" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K602" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21787,7 +22843,9 @@
       <c r="I603" t="n">
         <v>1.913</v>
       </c>
-      <c r="J603" t="inlineStr"/>
+      <c r="J603" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K603" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21826,7 +22884,9 @@
       <c r="I604" t="n">
         <v>1.911</v>
       </c>
-      <c r="J604" t="inlineStr"/>
+      <c r="J604" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K604" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21865,7 +22925,9 @@
       <c r="I605" t="n">
         <v>1.911</v>
       </c>
-      <c r="J605" t="inlineStr"/>
+      <c r="J605" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K605" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21904,7 +22966,9 @@
       <c r="I606" t="n">
         <v>1.912</v>
       </c>
-      <c r="J606" t="inlineStr"/>
+      <c r="J606" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K606" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21943,7 +23007,9 @@
       <c r="I607" t="n">
         <v>1.911</v>
       </c>
-      <c r="J607" t="inlineStr"/>
+      <c r="J607" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K607" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21982,7 +23048,9 @@
       <c r="I608" t="n">
         <v>1.911</v>
       </c>
-      <c r="J608" t="inlineStr"/>
+      <c r="J608" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K608" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22021,7 +23089,9 @@
       <c r="I609" t="n">
         <v>1.912</v>
       </c>
-      <c r="J609" t="inlineStr"/>
+      <c r="J609" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K609" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22060,7 +23130,9 @@
       <c r="I610" t="n">
         <v>1.911</v>
       </c>
-      <c r="J610" t="inlineStr"/>
+      <c r="J610" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K610" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22099,7 +23171,9 @@
       <c r="I611" t="n">
         <v>1.917</v>
       </c>
-      <c r="J611" t="inlineStr"/>
+      <c r="J611" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K611" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22133,10 +23207,14 @@
         <v>-1119656.206513541</v>
       </c>
       <c r="H612" t="n">
-        <v>0</v>
-      </c>
-      <c r="I612" t="inlineStr"/>
-      <c r="J612" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I612" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="J612" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K612" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22170,10 +23248,14 @@
         <v>-630479.2044135411</v>
       </c>
       <c r="H613" t="n">
-        <v>0</v>
-      </c>
-      <c r="I613" t="inlineStr"/>
-      <c r="J613" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I613" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="J613" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K613" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22207,10 +23289,14 @@
         <v>-518093.3686135411</v>
       </c>
       <c r="H614" t="n">
-        <v>0</v>
-      </c>
-      <c r="I614" t="inlineStr"/>
-      <c r="J614" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I614" t="n">
+        <v>1.932</v>
+      </c>
+      <c r="J614" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K614" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22244,10 +23330,14 @@
         <v>204466.2387100362</v>
       </c>
       <c r="H615" t="n">
-        <v>0</v>
-      </c>
-      <c r="I615" t="inlineStr"/>
-      <c r="J615" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I615" t="n">
+        <v>1.948</v>
+      </c>
+      <c r="J615" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K615" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22284,7 +23374,9 @@
         <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
-      <c r="J616" t="inlineStr"/>
+      <c r="J616" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K616" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22321,7 +23413,9 @@
         <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
-      <c r="J617" t="inlineStr"/>
+      <c r="J617" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K617" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22358,7 +23452,9 @@
         <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
-      <c r="J618" t="inlineStr"/>
+      <c r="J618" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K618" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22395,7 +23491,9 @@
         <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
-      <c r="J619" t="inlineStr"/>
+      <c r="J619" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K619" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22432,7 +23530,9 @@
         <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
-      <c r="J620" t="inlineStr"/>
+      <c r="J620" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K620" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22469,7 +23569,9 @@
         <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
-      <c r="J621" t="inlineStr"/>
+      <c r="J621" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K621" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22506,7 +23608,9 @@
         <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
-      <c r="J622" t="inlineStr"/>
+      <c r="J622" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K622" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22543,7 +23647,9 @@
         <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
-      <c r="J623" t="inlineStr"/>
+      <c r="J623" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K623" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22580,7 +23686,9 @@
         <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
-      <c r="J624" t="inlineStr"/>
+      <c r="J624" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K624" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22617,7 +23725,9 @@
         <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
-      <c r="J625" t="inlineStr"/>
+      <c r="J625" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K625" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22654,7 +23764,9 @@
         <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
-      <c r="J626" t="inlineStr"/>
+      <c r="J626" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K626" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22691,7 +23803,9 @@
         <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
-      <c r="J627" t="inlineStr"/>
+      <c r="J627" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K627" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22728,7 +23842,9 @@
         <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
-      <c r="J628" t="inlineStr"/>
+      <c r="J628" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K628" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22765,7 +23881,9 @@
         <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
-      <c r="J629" t="inlineStr"/>
+      <c r="J629" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K629" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22802,7 +23920,9 @@
         <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
-      <c r="J630" t="inlineStr"/>
+      <c r="J630" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K630" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22839,7 +23959,9 @@
         <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
-      <c r="J631" t="inlineStr"/>
+      <c r="J631" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K631" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22876,7 +23998,9 @@
         <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
-      <c r="J632" t="inlineStr"/>
+      <c r="J632" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K632" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22913,7 +24037,9 @@
         <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
-      <c r="J633" t="inlineStr"/>
+      <c r="J633" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K633" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22950,7 +24076,9 @@
         <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
-      <c r="J634" t="inlineStr"/>
+      <c r="J634" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K634" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22987,7 +24115,9 @@
         <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
-      <c r="J635" t="inlineStr"/>
+      <c r="J635" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K635" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23024,7 +24154,9 @@
         <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
-      <c r="J636" t="inlineStr"/>
+      <c r="J636" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K636" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23061,7 +24193,9 @@
         <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
-      <c r="J637" t="inlineStr"/>
+      <c r="J637" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K637" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23098,7 +24232,9 @@
         <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
-      <c r="J638" t="inlineStr"/>
+      <c r="J638" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K638" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23135,7 +24271,9 @@
         <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
-      <c r="J639" t="inlineStr"/>
+      <c r="J639" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K639" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23172,7 +24310,9 @@
         <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
-      <c r="J640" t="inlineStr"/>
+      <c r="J640" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K640" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23209,7 +24349,9 @@
         <v>0</v>
       </c>
       <c r="I641" t="inlineStr"/>
-      <c r="J641" t="inlineStr"/>
+      <c r="J641" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K641" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23246,7 +24388,9 @@
         <v>0</v>
       </c>
       <c r="I642" t="inlineStr"/>
-      <c r="J642" t="inlineStr"/>
+      <c r="J642" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K642" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23283,7 +24427,9 @@
         <v>0</v>
       </c>
       <c r="I643" t="inlineStr"/>
-      <c r="J643" t="inlineStr"/>
+      <c r="J643" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K643" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23320,7 +24466,9 @@
         <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
-      <c r="J644" t="inlineStr"/>
+      <c r="J644" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K644" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23357,7 +24505,9 @@
         <v>0</v>
       </c>
       <c r="I645" t="inlineStr"/>
-      <c r="J645" t="inlineStr"/>
+      <c r="J645" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K645" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23394,7 +24544,9 @@
         <v>0</v>
       </c>
       <c r="I646" t="inlineStr"/>
-      <c r="J646" t="inlineStr"/>
+      <c r="J646" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K646" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23431,7 +24583,9 @@
         <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
-      <c r="J647" t="inlineStr"/>
+      <c r="J647" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K647" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23468,7 +24622,9 @@
         <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
-      <c r="J648" t="inlineStr"/>
+      <c r="J648" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K648" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23505,7 +24661,9 @@
         <v>0</v>
       </c>
       <c r="I649" t="inlineStr"/>
-      <c r="J649" t="inlineStr"/>
+      <c r="J649" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K649" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23542,7 +24700,9 @@
         <v>0</v>
       </c>
       <c r="I650" t="inlineStr"/>
-      <c r="J650" t="inlineStr"/>
+      <c r="J650" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K650" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23579,7 +24739,9 @@
         <v>0</v>
       </c>
       <c r="I651" t="inlineStr"/>
-      <c r="J651" t="inlineStr"/>
+      <c r="J651" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K651" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23616,7 +24778,9 @@
         <v>0</v>
       </c>
       <c r="I652" t="inlineStr"/>
-      <c r="J652" t="inlineStr"/>
+      <c r="J652" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K652" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23653,7 +24817,9 @@
         <v>0</v>
       </c>
       <c r="I653" t="inlineStr"/>
-      <c r="J653" t="inlineStr"/>
+      <c r="J653" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K653" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23690,7 +24856,9 @@
         <v>0</v>
       </c>
       <c r="I654" t="inlineStr"/>
-      <c r="J654" t="inlineStr"/>
+      <c r="J654" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K654" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23727,7 +24895,9 @@
         <v>0</v>
       </c>
       <c r="I655" t="inlineStr"/>
-      <c r="J655" t="inlineStr"/>
+      <c r="J655" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K655" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23764,7 +24934,9 @@
         <v>0</v>
       </c>
       <c r="I656" t="inlineStr"/>
-      <c r="J656" t="inlineStr"/>
+      <c r="J656" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K656" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23801,7 +24973,9 @@
         <v>0</v>
       </c>
       <c r="I657" t="inlineStr"/>
-      <c r="J657" t="inlineStr"/>
+      <c r="J657" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K657" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23838,7 +25012,9 @@
         <v>0</v>
       </c>
       <c r="I658" t="inlineStr"/>
-      <c r="J658" t="inlineStr"/>
+      <c r="J658" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K658" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23875,7 +25051,9 @@
         <v>0</v>
       </c>
       <c r="I659" t="inlineStr"/>
-      <c r="J659" t="inlineStr"/>
+      <c r="J659" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K659" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23912,7 +25090,9 @@
         <v>0</v>
       </c>
       <c r="I660" t="inlineStr"/>
-      <c r="J660" t="inlineStr"/>
+      <c r="J660" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K660" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23949,7 +25129,9 @@
         <v>0</v>
       </c>
       <c r="I661" t="inlineStr"/>
-      <c r="J661" t="inlineStr"/>
+      <c r="J661" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K661" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23986,7 +25168,9 @@
         <v>0</v>
       </c>
       <c r="I662" t="inlineStr"/>
-      <c r="J662" t="inlineStr"/>
+      <c r="J662" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K662" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24023,7 +25207,9 @@
         <v>0</v>
       </c>
       <c r="I663" t="inlineStr"/>
-      <c r="J663" t="inlineStr"/>
+      <c r="J663" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K663" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24060,7 +25246,9 @@
         <v>0</v>
       </c>
       <c r="I664" t="inlineStr"/>
-      <c r="J664" t="inlineStr"/>
+      <c r="J664" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K664" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24097,7 +25285,9 @@
         <v>0</v>
       </c>
       <c r="I665" t="inlineStr"/>
-      <c r="J665" t="inlineStr"/>
+      <c r="J665" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K665" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24134,7 +25324,9 @@
         <v>0</v>
       </c>
       <c r="I666" t="inlineStr"/>
-      <c r="J666" t="inlineStr"/>
+      <c r="J666" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K666" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24171,7 +25363,9 @@
         <v>0</v>
       </c>
       <c r="I667" t="inlineStr"/>
-      <c r="J667" t="inlineStr"/>
+      <c r="J667" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K667" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24208,7 +25402,9 @@
         <v>0</v>
       </c>
       <c r="I668" t="inlineStr"/>
-      <c r="J668" t="inlineStr"/>
+      <c r="J668" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K668" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24245,7 +25441,9 @@
         <v>0</v>
       </c>
       <c r="I669" t="inlineStr"/>
-      <c r="J669" t="inlineStr"/>
+      <c r="J669" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K669" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24282,7 +25480,9 @@
         <v>0</v>
       </c>
       <c r="I670" t="inlineStr"/>
-      <c r="J670" t="inlineStr"/>
+      <c r="J670" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K670" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24319,7 +25519,9 @@
         <v>0</v>
       </c>
       <c r="I671" t="inlineStr"/>
-      <c r="J671" t="inlineStr"/>
+      <c r="J671" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K671" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24356,7 +25558,9 @@
         <v>0</v>
       </c>
       <c r="I672" t="inlineStr"/>
-      <c r="J672" t="inlineStr"/>
+      <c r="J672" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K672" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24393,7 +25597,9 @@
         <v>0</v>
       </c>
       <c r="I673" t="inlineStr"/>
-      <c r="J673" t="inlineStr"/>
+      <c r="J673" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K673" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24430,7 +25636,9 @@
         <v>0</v>
       </c>
       <c r="I674" t="inlineStr"/>
-      <c r="J674" t="inlineStr"/>
+      <c r="J674" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K674" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24467,7 +25675,9 @@
         <v>0</v>
       </c>
       <c r="I675" t="inlineStr"/>
-      <c r="J675" t="inlineStr"/>
+      <c r="J675" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K675" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24504,7 +25714,9 @@
         <v>0</v>
       </c>
       <c r="I676" t="inlineStr"/>
-      <c r="J676" t="inlineStr"/>
+      <c r="J676" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K676" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24541,7 +25753,9 @@
         <v>0</v>
       </c>
       <c r="I677" t="inlineStr"/>
-      <c r="J677" t="inlineStr"/>
+      <c r="J677" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K677" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24578,7 +25792,9 @@
         <v>0</v>
       </c>
       <c r="I678" t="inlineStr"/>
-      <c r="J678" t="inlineStr"/>
+      <c r="J678" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K678" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24615,7 +25831,9 @@
         <v>0</v>
       </c>
       <c r="I679" t="inlineStr"/>
-      <c r="J679" t="inlineStr"/>
+      <c r="J679" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K679" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24652,7 +25870,9 @@
         <v>0</v>
       </c>
       <c r="I680" t="inlineStr"/>
-      <c r="J680" t="inlineStr"/>
+      <c r="J680" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K680" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24689,7 +25909,9 @@
         <v>0</v>
       </c>
       <c r="I681" t="inlineStr"/>
-      <c r="J681" t="inlineStr"/>
+      <c r="J681" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K681" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24726,7 +25948,9 @@
         <v>0</v>
       </c>
       <c r="I682" t="inlineStr"/>
-      <c r="J682" t="inlineStr"/>
+      <c r="J682" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K682" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24763,7 +25987,9 @@
         <v>0</v>
       </c>
       <c r="I683" t="inlineStr"/>
-      <c r="J683" t="inlineStr"/>
+      <c r="J683" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K683" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24800,7 +26026,9 @@
         <v>0</v>
       </c>
       <c r="I684" t="inlineStr"/>
-      <c r="J684" t="inlineStr"/>
+      <c r="J684" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K684" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24837,7 +26065,9 @@
         <v>0</v>
       </c>
       <c r="I685" t="inlineStr"/>
-      <c r="J685" t="inlineStr"/>
+      <c r="J685" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K685" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24874,7 +26104,9 @@
         <v>0</v>
       </c>
       <c r="I686" t="inlineStr"/>
-      <c r="J686" t="inlineStr"/>
+      <c r="J686" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K686" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24911,7 +26143,9 @@
         <v>0</v>
       </c>
       <c r="I687" t="inlineStr"/>
-      <c r="J687" t="inlineStr"/>
+      <c r="J687" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K687" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24948,7 +26182,9 @@
         <v>0</v>
       </c>
       <c r="I688" t="inlineStr"/>
-      <c r="J688" t="inlineStr"/>
+      <c r="J688" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K688" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24985,7 +26221,9 @@
         <v>0</v>
       </c>
       <c r="I689" t="inlineStr"/>
-      <c r="J689" t="inlineStr"/>
+      <c r="J689" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K689" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25022,7 +26260,9 @@
         <v>0</v>
       </c>
       <c r="I690" t="inlineStr"/>
-      <c r="J690" t="inlineStr"/>
+      <c r="J690" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K690" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25059,7 +26299,9 @@
         <v>0</v>
       </c>
       <c r="I691" t="inlineStr"/>
-      <c r="J691" t="inlineStr"/>
+      <c r="J691" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K691" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25096,7 +26338,9 @@
         <v>0</v>
       </c>
       <c r="I692" t="inlineStr"/>
-      <c r="J692" t="inlineStr"/>
+      <c r="J692" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K692" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25133,7 +26377,9 @@
         <v>0</v>
       </c>
       <c r="I693" t="inlineStr"/>
-      <c r="J693" t="inlineStr"/>
+      <c r="J693" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K693" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25170,7 +26416,9 @@
         <v>0</v>
       </c>
       <c r="I694" t="inlineStr"/>
-      <c r="J694" t="inlineStr"/>
+      <c r="J694" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K694" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25207,7 +26455,9 @@
         <v>0</v>
       </c>
       <c r="I695" t="inlineStr"/>
-      <c r="J695" t="inlineStr"/>
+      <c r="J695" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K695" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25244,7 +26494,9 @@
         <v>0</v>
       </c>
       <c r="I696" t="inlineStr"/>
-      <c r="J696" t="inlineStr"/>
+      <c r="J696" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K696" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25281,7 +26533,9 @@
         <v>0</v>
       </c>
       <c r="I697" t="inlineStr"/>
-      <c r="J697" t="inlineStr"/>
+      <c r="J697" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K697" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25318,7 +26572,9 @@
         <v>0</v>
       </c>
       <c r="I698" t="inlineStr"/>
-      <c r="J698" t="inlineStr"/>
+      <c r="J698" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K698" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25355,7 +26611,9 @@
         <v>0</v>
       </c>
       <c r="I699" t="inlineStr"/>
-      <c r="J699" t="inlineStr"/>
+      <c r="J699" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K699" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25392,7 +26650,9 @@
         <v>0</v>
       </c>
       <c r="I700" t="inlineStr"/>
-      <c r="J700" t="inlineStr"/>
+      <c r="J700" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K700" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25429,7 +26689,9 @@
         <v>0</v>
       </c>
       <c r="I701" t="inlineStr"/>
-      <c r="J701" t="inlineStr"/>
+      <c r="J701" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K701" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25466,7 +26728,9 @@
         <v>0</v>
       </c>
       <c r="I702" t="inlineStr"/>
-      <c r="J702" t="inlineStr"/>
+      <c r="J702" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K702" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25503,7 +26767,9 @@
         <v>0</v>
       </c>
       <c r="I703" t="inlineStr"/>
-      <c r="J703" t="inlineStr"/>
+      <c r="J703" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K703" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25540,7 +26806,9 @@
         <v>0</v>
       </c>
       <c r="I704" t="inlineStr"/>
-      <c r="J704" t="inlineStr"/>
+      <c r="J704" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K704" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25577,7 +26845,9 @@
         <v>0</v>
       </c>
       <c r="I705" t="inlineStr"/>
-      <c r="J705" t="inlineStr"/>
+      <c r="J705" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K705" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25614,7 +26884,9 @@
         <v>0</v>
       </c>
       <c r="I706" t="inlineStr"/>
-      <c r="J706" t="inlineStr"/>
+      <c r="J706" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K706" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25651,7 +26923,9 @@
         <v>0</v>
       </c>
       <c r="I707" t="inlineStr"/>
-      <c r="J707" t="inlineStr"/>
+      <c r="J707" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K707" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25688,7 +26962,9 @@
         <v>0</v>
       </c>
       <c r="I708" t="inlineStr"/>
-      <c r="J708" t="inlineStr"/>
+      <c r="J708" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K708" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25725,7 +27001,9 @@
         <v>0</v>
       </c>
       <c r="I709" t="inlineStr"/>
-      <c r="J709" t="inlineStr"/>
+      <c r="J709" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K709" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25762,7 +27040,9 @@
         <v>0</v>
       </c>
       <c r="I710" t="inlineStr"/>
-      <c r="J710" t="inlineStr"/>
+      <c r="J710" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K710" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25799,7 +27079,9 @@
         <v>0</v>
       </c>
       <c r="I711" t="inlineStr"/>
-      <c r="J711" t="inlineStr"/>
+      <c r="J711" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K711" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25836,7 +27118,9 @@
         <v>0</v>
       </c>
       <c r="I712" t="inlineStr"/>
-      <c r="J712" t="inlineStr"/>
+      <c r="J712" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K712" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25873,7 +27157,9 @@
         <v>0</v>
       </c>
       <c r="I713" t="inlineStr"/>
-      <c r="J713" t="inlineStr"/>
+      <c r="J713" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K713" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25910,7 +27196,9 @@
         <v>0</v>
       </c>
       <c r="I714" t="inlineStr"/>
-      <c r="J714" t="inlineStr"/>
+      <c r="J714" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K714" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25947,7 +27235,9 @@
         <v>0</v>
       </c>
       <c r="I715" t="inlineStr"/>
-      <c r="J715" t="inlineStr"/>
+      <c r="J715" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K715" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25984,7 +27274,9 @@
         <v>0</v>
       </c>
       <c r="I716" t="inlineStr"/>
-      <c r="J716" t="inlineStr"/>
+      <c r="J716" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K716" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26021,7 +27313,9 @@
         <v>0</v>
       </c>
       <c r="I717" t="inlineStr"/>
-      <c r="J717" t="inlineStr"/>
+      <c r="J717" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K717" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26058,7 +27352,9 @@
         <v>0</v>
       </c>
       <c r="I718" t="inlineStr"/>
-      <c r="J718" t="inlineStr"/>
+      <c r="J718" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K718" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26095,7 +27391,9 @@
         <v>0</v>
       </c>
       <c r="I719" t="inlineStr"/>
-      <c r="J719" t="inlineStr"/>
+      <c r="J719" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K719" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26132,7 +27430,9 @@
         <v>0</v>
       </c>
       <c r="I720" t="inlineStr"/>
-      <c r="J720" t="inlineStr"/>
+      <c r="J720" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K720" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26169,7 +27469,9 @@
         <v>0</v>
       </c>
       <c r="I721" t="inlineStr"/>
-      <c r="J721" t="inlineStr"/>
+      <c r="J721" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K721" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26206,7 +27508,9 @@
         <v>0</v>
       </c>
       <c r="I722" t="inlineStr"/>
-      <c r="J722" t="inlineStr"/>
+      <c r="J722" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K722" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26243,7 +27547,9 @@
         <v>0</v>
       </c>
       <c r="I723" t="inlineStr"/>
-      <c r="J723" t="inlineStr"/>
+      <c r="J723" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K723" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26280,7 +27586,9 @@
         <v>0</v>
       </c>
       <c r="I724" t="inlineStr"/>
-      <c r="J724" t="inlineStr"/>
+      <c r="J724" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K724" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26317,7 +27625,9 @@
         <v>0</v>
       </c>
       <c r="I725" t="inlineStr"/>
-      <c r="J725" t="inlineStr"/>
+      <c r="J725" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K725" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26354,7 +27664,9 @@
         <v>0</v>
       </c>
       <c r="I726" t="inlineStr"/>
-      <c r="J726" t="inlineStr"/>
+      <c r="J726" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K726" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26391,7 +27703,9 @@
         <v>0</v>
       </c>
       <c r="I727" t="inlineStr"/>
-      <c r="J727" t="inlineStr"/>
+      <c r="J727" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K727" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26428,7 +27742,9 @@
         <v>0</v>
       </c>
       <c r="I728" t="inlineStr"/>
-      <c r="J728" t="inlineStr"/>
+      <c r="J728" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K728" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26465,7 +27781,9 @@
         <v>0</v>
       </c>
       <c r="I729" t="inlineStr"/>
-      <c r="J729" t="inlineStr"/>
+      <c r="J729" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K729" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26502,7 +27820,9 @@
         <v>0</v>
       </c>
       <c r="I730" t="inlineStr"/>
-      <c r="J730" t="inlineStr"/>
+      <c r="J730" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K730" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26539,7 +27859,9 @@
         <v>0</v>
       </c>
       <c r="I731" t="inlineStr"/>
-      <c r="J731" t="inlineStr"/>
+      <c r="J731" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K731" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26576,7 +27898,9 @@
         <v>0</v>
       </c>
       <c r="I732" t="inlineStr"/>
-      <c r="J732" t="inlineStr"/>
+      <c r="J732" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K732" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26613,7 +27937,9 @@
         <v>0</v>
       </c>
       <c r="I733" t="inlineStr"/>
-      <c r="J733" t="inlineStr"/>
+      <c r="J733" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K733" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26650,7 +27976,9 @@
         <v>0</v>
       </c>
       <c r="I734" t="inlineStr"/>
-      <c r="J734" t="inlineStr"/>
+      <c r="J734" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K734" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26687,7 +28015,9 @@
         <v>0</v>
       </c>
       <c r="I735" t="inlineStr"/>
-      <c r="J735" t="inlineStr"/>
+      <c r="J735" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K735" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26724,7 +28054,9 @@
         <v>0</v>
       </c>
       <c r="I736" t="inlineStr"/>
-      <c r="J736" t="inlineStr"/>
+      <c r="J736" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K736" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26761,7 +28093,9 @@
         <v>0</v>
       </c>
       <c r="I737" t="inlineStr"/>
-      <c r="J737" t="inlineStr"/>
+      <c r="J737" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K737" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26798,7 +28132,9 @@
         <v>0</v>
       </c>
       <c r="I738" t="inlineStr"/>
-      <c r="J738" t="inlineStr"/>
+      <c r="J738" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K738" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26835,7 +28171,9 @@
         <v>0</v>
       </c>
       <c r="I739" t="inlineStr"/>
-      <c r="J739" t="inlineStr"/>
+      <c r="J739" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K739" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26872,7 +28210,9 @@
         <v>0</v>
       </c>
       <c r="I740" t="inlineStr"/>
-      <c r="J740" t="inlineStr"/>
+      <c r="J740" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K740" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26909,7 +28249,9 @@
         <v>0</v>
       </c>
       <c r="I741" t="inlineStr"/>
-      <c r="J741" t="inlineStr"/>
+      <c r="J741" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K741" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26946,7 +28288,9 @@
         <v>0</v>
       </c>
       <c r="I742" t="inlineStr"/>
-      <c r="J742" t="inlineStr"/>
+      <c r="J742" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K742" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26983,7 +28327,9 @@
         <v>0</v>
       </c>
       <c r="I743" t="inlineStr"/>
-      <c r="J743" t="inlineStr"/>
+      <c r="J743" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K743" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27020,7 +28366,9 @@
         <v>0</v>
       </c>
       <c r="I744" t="inlineStr"/>
-      <c r="J744" t="inlineStr"/>
+      <c r="J744" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K744" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27057,7 +28405,9 @@
         <v>0</v>
       </c>
       <c r="I745" t="inlineStr"/>
-      <c r="J745" t="inlineStr"/>
+      <c r="J745" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K745" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27094,7 +28444,9 @@
         <v>0</v>
       </c>
       <c r="I746" t="inlineStr"/>
-      <c r="J746" t="inlineStr"/>
+      <c r="J746" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K746" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27131,7 +28483,9 @@
         <v>0</v>
       </c>
       <c r="I747" t="inlineStr"/>
-      <c r="J747" t="inlineStr"/>
+      <c r="J747" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K747" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27165,10 +28519,14 @@
         <v>-5028673.913889963</v>
       </c>
       <c r="H748" t="n">
-        <v>0</v>
-      </c>
-      <c r="I748" t="inlineStr"/>
-      <c r="J748" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I748" t="n">
+        <v>1.969</v>
+      </c>
+      <c r="J748" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K748" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27202,10 +28560,14 @@
         <v>-4984479.872789963</v>
       </c>
       <c r="H749" t="n">
-        <v>0</v>
-      </c>
-      <c r="I749" t="inlineStr"/>
-      <c r="J749" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I749" t="n">
+        <v>1.966</v>
+      </c>
+      <c r="J749" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K749" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27239,10 +28601,14 @@
         <v>-4966709.503089963</v>
       </c>
       <c r="H750" t="n">
-        <v>0</v>
-      </c>
-      <c r="I750" t="inlineStr"/>
-      <c r="J750" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I750" t="n">
+        <v>1.968</v>
+      </c>
+      <c r="J750" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K750" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27276,10 +28642,14 @@
         <v>-5016048.497889964</v>
       </c>
       <c r="H751" t="n">
-        <v>0</v>
-      </c>
-      <c r="I751" t="inlineStr"/>
-      <c r="J751" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I751" t="n">
+        <v>1.975</v>
+      </c>
+      <c r="J751" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K751" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27313,10 +28683,14 @@
         <v>-5069154.373489964</v>
       </c>
       <c r="H752" t="n">
-        <v>0</v>
-      </c>
-      <c r="I752" t="inlineStr"/>
-      <c r="J752" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I752" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="J752" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K752" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27355,7 +28729,9 @@
       <c r="I753" t="n">
         <v>1.966</v>
       </c>
-      <c r="J753" t="inlineStr"/>
+      <c r="J753" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K753" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27394,7 +28770,9 @@
       <c r="I754" t="n">
         <v>1.963</v>
       </c>
-      <c r="J754" t="inlineStr"/>
+      <c r="J754" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K754" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27433,7 +28811,9 @@
       <c r="I755" t="n">
         <v>1.962</v>
       </c>
-      <c r="J755" t="inlineStr"/>
+      <c r="J755" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K755" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27472,7 +28852,9 @@
       <c r="I756" t="n">
         <v>1.965</v>
       </c>
-      <c r="J756" t="inlineStr"/>
+      <c r="J756" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K756" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27511,7 +28893,9 @@
       <c r="I757" t="n">
         <v>1.96</v>
       </c>
-      <c r="J757" t="inlineStr"/>
+      <c r="J757" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K757" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27550,7 +28934,9 @@
       <c r="I758" t="n">
         <v>1.963</v>
       </c>
-      <c r="J758" t="inlineStr"/>
+      <c r="J758" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K758" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27589,7 +28975,9 @@
       <c r="I759" t="n">
         <v>1.963</v>
       </c>
-      <c r="J759" t="inlineStr"/>
+      <c r="J759" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K759" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27628,7 +29016,9 @@
       <c r="I760" t="n">
         <v>1.963</v>
       </c>
-      <c r="J760" t="inlineStr"/>
+      <c r="J760" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K760" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27667,7 +29057,9 @@
       <c r="I761" t="n">
         <v>1.959</v>
       </c>
-      <c r="J761" t="inlineStr"/>
+      <c r="J761" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K761" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27706,7 +29098,9 @@
       <c r="I762" t="n">
         <v>1.964</v>
       </c>
-      <c r="J762" t="inlineStr"/>
+      <c r="J762" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K762" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27745,7 +29139,9 @@
       <c r="I763" t="n">
         <v>1.971</v>
       </c>
-      <c r="J763" t="inlineStr"/>
+      <c r="J763" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K763" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27784,7 +29180,9 @@
       <c r="I764" t="n">
         <v>1.97</v>
       </c>
-      <c r="J764" t="inlineStr"/>
+      <c r="J764" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K764" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27823,7 +29221,9 @@
       <c r="I765" t="n">
         <v>1.978</v>
       </c>
-      <c r="J765" t="inlineStr"/>
+      <c r="J765" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K765" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27857,10 +29257,14 @@
         <v>-4204240.771289963</v>
       </c>
       <c r="H766" t="n">
-        <v>0</v>
-      </c>
-      <c r="I766" t="inlineStr"/>
-      <c r="J766" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I766" t="n">
+        <v>2.022</v>
+      </c>
+      <c r="J766" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K766" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27894,10 +29298,14 @@
         <v>-4203991.771289963</v>
       </c>
       <c r="H767" t="n">
-        <v>0</v>
-      </c>
-      <c r="I767" t="inlineStr"/>
-      <c r="J767" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I767" t="n">
+        <v>2.022</v>
+      </c>
+      <c r="J767" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K767" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27931,10 +29339,14 @@
         <v>-4240115.132289963</v>
       </c>
       <c r="H768" t="n">
-        <v>0</v>
-      </c>
-      <c r="I768" t="inlineStr"/>
-      <c r="J768" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I768" t="n">
+        <v>2.023</v>
+      </c>
+      <c r="J768" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K768" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27968,10 +29380,14 @@
         <v>-4211981.422889963</v>
       </c>
       <c r="H769" t="n">
-        <v>0</v>
-      </c>
-      <c r="I769" t="inlineStr"/>
-      <c r="J769" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I769" t="n">
+        <v>2.005</v>
+      </c>
+      <c r="J769" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K769" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28008,7 +29424,9 @@
         <v>0</v>
       </c>
       <c r="I770" t="inlineStr"/>
-      <c r="J770" t="inlineStr"/>
+      <c r="J770" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K770" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28045,7 +29463,9 @@
         <v>0</v>
       </c>
       <c r="I771" t="inlineStr"/>
-      <c r="J771" t="inlineStr"/>
+      <c r="J771" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K771" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28082,7 +29502,9 @@
         <v>0</v>
       </c>
       <c r="I772" t="inlineStr"/>
-      <c r="J772" t="inlineStr"/>
+      <c r="J772" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K772" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28119,7 +29541,9 @@
         <v>0</v>
       </c>
       <c r="I773" t="inlineStr"/>
-      <c r="J773" t="inlineStr"/>
+      <c r="J773" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K773" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28153,19 +29577,23 @@
         <v>-987083.6735313053</v>
       </c>
       <c r="H774" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I774" t="inlineStr"/>
-      <c r="J774" t="inlineStr"/>
+      <c r="J774" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K774" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L774" t="n">
-        <v>1</v>
-      </c>
-      <c r="M774" t="inlineStr"/>
+        <v>1.146356993736952</v>
+      </c>
+      <c r="M774" t="n">
+        <v>1.005230125523012</v>
+      </c>
     </row>
     <row r="775">
       <c r="A775" s="1" t="n">
@@ -28190,15 +29618,11 @@
         <v>-1531736.971231305</v>
       </c>
       <c r="H775" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I775" t="inlineStr"/>
       <c r="J775" t="inlineStr"/>
-      <c r="K775" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K775" t="inlineStr"/>
       <c r="L775" t="n">
         <v>1</v>
       </c>
@@ -28231,11 +29655,7 @@
       </c>
       <c r="I776" t="inlineStr"/>
       <c r="J776" t="inlineStr"/>
-      <c r="K776" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K776" t="inlineStr"/>
       <c r="L776" t="n">
         <v>1</v>
       </c>
@@ -28264,15 +29684,11 @@
         <v>-1104131.661731305</v>
       </c>
       <c r="H777" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I777" t="inlineStr"/>
       <c r="J777" t="inlineStr"/>
-      <c r="K777" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K777" t="inlineStr"/>
       <c r="L777" t="n">
         <v>1</v>
       </c>
@@ -28305,11 +29721,7 @@
       </c>
       <c r="I778" t="inlineStr"/>
       <c r="J778" t="inlineStr"/>
-      <c r="K778" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K778" t="inlineStr"/>
       <c r="L778" t="n">
         <v>1</v>
       </c>
@@ -28338,15 +29750,11 @@
         <v>-1034636.855131305</v>
       </c>
       <c r="H779" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I779" t="inlineStr"/>
       <c r="J779" t="inlineStr"/>
-      <c r="K779" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K779" t="inlineStr"/>
       <c r="L779" t="n">
         <v>1</v>
       </c>
@@ -28379,11 +29787,7 @@
       </c>
       <c r="I780" t="inlineStr"/>
       <c r="J780" t="inlineStr"/>
-      <c r="K780" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K780" t="inlineStr"/>
       <c r="L780" t="n">
         <v>1</v>
       </c>
@@ -28412,15 +29816,11 @@
         <v>-208061.9966474343</v>
       </c>
       <c r="H781" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I781" t="inlineStr"/>
       <c r="J781" t="inlineStr"/>
-      <c r="K781" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K781" t="inlineStr"/>
       <c r="L781" t="n">
         <v>1</v>
       </c>
@@ -28453,11 +29853,7 @@
       </c>
       <c r="I782" t="inlineStr"/>
       <c r="J782" t="inlineStr"/>
-      <c r="K782" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K782" t="inlineStr"/>
       <c r="L782" t="n">
         <v>1</v>
       </c>
@@ -28486,15 +29882,11 @@
         <v>-577563.9289474343</v>
       </c>
       <c r="H783" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I783" t="inlineStr"/>
       <c r="J783" t="inlineStr"/>
-      <c r="K783" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K783" t="inlineStr"/>
       <c r="L783" t="n">
         <v>1</v>
       </c>
@@ -28527,11 +29919,7 @@
       </c>
       <c r="I784" t="inlineStr"/>
       <c r="J784" t="inlineStr"/>
-      <c r="K784" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K784" t="inlineStr"/>
       <c r="L784" t="n">
         <v>1</v>
       </c>
@@ -28560,15 +29948,11 @@
         <v>717890.0517525657</v>
       </c>
       <c r="H785" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I785" t="inlineStr"/>
       <c r="J785" t="inlineStr"/>
-      <c r="K785" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K785" t="inlineStr"/>
       <c r="L785" t="n">
         <v>1</v>
       </c>
@@ -28601,11 +29985,7 @@
       </c>
       <c r="I786" t="inlineStr"/>
       <c r="J786" t="inlineStr"/>
-      <c r="K786" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K786" t="inlineStr"/>
       <c r="L786" t="n">
         <v>1</v>
       </c>
@@ -28634,15 +30014,11 @@
         <v>46326.07835256564</v>
       </c>
       <c r="H787" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I787" t="inlineStr"/>
       <c r="J787" t="inlineStr"/>
-      <c r="K787" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K787" t="inlineStr"/>
       <c r="L787" t="n">
         <v>1</v>
       </c>
@@ -28675,11 +30051,7 @@
       </c>
       <c r="I788" t="inlineStr"/>
       <c r="J788" t="inlineStr"/>
-      <c r="K788" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K788" t="inlineStr"/>
       <c r="L788" t="n">
         <v>1</v>
       </c>
@@ -28712,11 +30084,7 @@
       </c>
       <c r="I789" t="inlineStr"/>
       <c r="J789" t="inlineStr"/>
-      <c r="K789" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K789" t="inlineStr"/>
       <c r="L789" t="n">
         <v>1</v>
       </c>
@@ -28749,11 +30117,7 @@
       </c>
       <c r="I790" t="inlineStr"/>
       <c r="J790" t="inlineStr"/>
-      <c r="K790" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K790" t="inlineStr"/>
       <c r="L790" t="n">
         <v>1</v>
       </c>
@@ -28786,11 +30150,7 @@
       </c>
       <c r="I791" t="inlineStr"/>
       <c r="J791" t="inlineStr"/>
-      <c r="K791" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K791" t="inlineStr"/>
       <c r="L791" t="n">
         <v>1</v>
       </c>
@@ -28823,11 +30183,7 @@
       </c>
       <c r="I792" t="inlineStr"/>
       <c r="J792" t="inlineStr"/>
-      <c r="K792" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K792" t="inlineStr"/>
       <c r="L792" t="n">
         <v>1</v>
       </c>
@@ -28860,11 +30216,7 @@
       </c>
       <c r="I793" t="inlineStr"/>
       <c r="J793" t="inlineStr"/>
-      <c r="K793" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K793" t="inlineStr"/>
       <c r="L793" t="n">
         <v>1</v>
       </c>
@@ -28897,11 +30249,7 @@
       </c>
       <c r="I794" t="inlineStr"/>
       <c r="J794" t="inlineStr"/>
-      <c r="K794" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K794" t="inlineStr"/>
       <c r="L794" t="n">
         <v>1</v>
       </c>
@@ -28930,15 +30278,11 @@
         <v>120020.2334375038</v>
       </c>
       <c r="H795" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I795" t="inlineStr"/>
       <c r="J795" t="inlineStr"/>
-      <c r="K795" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K795" t="inlineStr"/>
       <c r="L795" t="n">
         <v>1</v>
       </c>
@@ -28971,11 +30315,7 @@
       </c>
       <c r="I796" t="inlineStr"/>
       <c r="J796" t="inlineStr"/>
-      <c r="K796" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K796" t="inlineStr"/>
       <c r="L796" t="n">
         <v>1</v>
       </c>
@@ -29004,15 +30344,11 @@
         <v>129790.2939375038</v>
       </c>
       <c r="H797" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I797" t="inlineStr"/>
       <c r="J797" t="inlineStr"/>
-      <c r="K797" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K797" t="inlineStr"/>
       <c r="L797" t="n">
         <v>1</v>
       </c>
@@ -29045,11 +30381,7 @@
       </c>
       <c r="I798" t="inlineStr"/>
       <c r="J798" t="inlineStr"/>
-      <c r="K798" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K798" t="inlineStr"/>
       <c r="L798" t="n">
         <v>1</v>
       </c>
@@ -29078,15 +30410,11 @@
         <v>-482156.3738624962</v>
       </c>
       <c r="H799" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I799" t="inlineStr"/>
       <c r="J799" t="inlineStr"/>
-      <c r="K799" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K799" t="inlineStr"/>
       <c r="L799" t="n">
         <v>1</v>
       </c>
@@ -29115,16 +30443,14 @@
         <v>-1816971.972262496</v>
       </c>
       <c r="H800" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I800" t="inlineStr"/>
       <c r="J800" t="inlineStr"/>
-      <c r="K800" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L800" t="inlineStr"/>
+      <c r="K800" t="inlineStr"/>
+      <c r="L800" t="n">
+        <v>1</v>
+      </c>
       <c r="M800" t="inlineStr"/>
     </row>
     <row r="801">
@@ -29183,7 +30509,7 @@
         <v>-1576353.057962496</v>
       </c>
       <c r="H802" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I802" t="inlineStr"/>
       <c r="J802" t="inlineStr"/>
@@ -29216,7 +30542,7 @@
         <v>-1478998.930862496</v>
       </c>
       <c r="H803" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I803" t="inlineStr"/>
       <c r="J803" t="inlineStr"/>
@@ -29282,7 +30608,7 @@
         <v>-1547227.437062496</v>
       </c>
       <c r="H805" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I805" t="inlineStr"/>
       <c r="J805" t="inlineStr"/>
@@ -29315,7 +30641,7 @@
         <v>-1249692.537862496</v>
       </c>
       <c r="H806" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I806" t="inlineStr"/>
       <c r="J806" t="inlineStr"/>
@@ -29348,7 +30674,7 @@
         <v>-1037073.296562496</v>
       </c>
       <c r="H807" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I807" t="inlineStr"/>
       <c r="J807" t="inlineStr"/>
@@ -43307,14 +44633,10 @@
         <v>-2909524.17414873</v>
       </c>
       <c r="H1230" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1230" t="n">
-        <v>1.954</v>
-      </c>
-      <c r="J1230" t="n">
-        <v>1.954</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1230" t="inlineStr"/>
+      <c r="J1230" t="inlineStr"/>
       <c r="K1230" t="inlineStr"/>
       <c r="L1230" t="n">
         <v>1</v>
@@ -43344,19 +44666,11 @@
         <v>-2950010.531548731</v>
       </c>
       <c r="H1231" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1231" t="n">
-        <v>1.954</v>
-      </c>
-      <c r="J1231" t="n">
-        <v>1.954</v>
-      </c>
-      <c r="K1231" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1231" t="inlineStr"/>
+      <c r="J1231" t="inlineStr"/>
+      <c r="K1231" t="inlineStr"/>
       <c r="L1231" t="n">
         <v>1</v>
       </c>
@@ -43385,19 +44699,11 @@
         <v>-2950010.531548731</v>
       </c>
       <c r="H1232" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1232" t="n">
-        <v>1.953</v>
-      </c>
-      <c r="J1232" t="n">
-        <v>1.954</v>
-      </c>
-      <c r="K1232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1232" t="inlineStr"/>
+      <c r="J1232" t="inlineStr"/>
+      <c r="K1232" t="inlineStr"/>
       <c r="L1232" t="n">
         <v>1</v>
       </c>
@@ -43426,19 +44732,11 @@
         <v>-2950010.531548731</v>
       </c>
       <c r="H1233" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1233" t="n">
-        <v>1.953</v>
-      </c>
-      <c r="J1233" t="n">
-        <v>1.954</v>
-      </c>
-      <c r="K1233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1233" t="inlineStr"/>
+      <c r="J1233" t="inlineStr"/>
+      <c r="K1233" t="inlineStr"/>
       <c r="L1233" t="n">
         <v>1</v>
       </c>
@@ -43467,19 +44765,11 @@
         <v>-2971522.934748731</v>
       </c>
       <c r="H1234" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1234" t="n">
-        <v>1.953</v>
-      </c>
-      <c r="J1234" t="n">
-        <v>1.954</v>
-      </c>
-      <c r="K1234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1234" t="inlineStr"/>
+      <c r="J1234" t="inlineStr"/>
+      <c r="K1234" t="inlineStr"/>
       <c r="L1234" t="n">
         <v>1</v>
       </c>
@@ -43508,19 +44798,11 @@
         <v>-2922103.220148731</v>
       </c>
       <c r="H1235" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1235" t="n">
-        <v>1.951</v>
-      </c>
-      <c r="J1235" t="n">
-        <v>1.954</v>
-      </c>
-      <c r="K1235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1235" t="inlineStr"/>
+      <c r="J1235" t="inlineStr"/>
+      <c r="K1235" t="inlineStr"/>
       <c r="L1235" t="n">
         <v>1</v>
       </c>
@@ -43549,19 +44831,11 @@
         <v>-2955736.747148731</v>
       </c>
       <c r="H1236" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1236" t="n">
-        <v>1.956</v>
-      </c>
-      <c r="J1236" t="n">
-        <v>1.954</v>
-      </c>
-      <c r="K1236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1236" t="inlineStr"/>
+      <c r="J1236" t="inlineStr"/>
+      <c r="K1236" t="inlineStr"/>
       <c r="L1236" t="n">
         <v>1</v>
       </c>
@@ -43590,19 +44864,11 @@
         <v>-3063445.534348731</v>
       </c>
       <c r="H1237" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1237" t="n">
-        <v>1.954</v>
-      </c>
-      <c r="J1237" t="n">
-        <v>1.954</v>
-      </c>
-      <c r="K1237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1237" t="inlineStr"/>
+      <c r="J1237" t="inlineStr"/>
+      <c r="K1237" t="inlineStr"/>
       <c r="L1237" t="n">
         <v>1</v>
       </c>
@@ -43631,19 +44897,11 @@
         <v>-3035785.392748731</v>
       </c>
       <c r="H1238" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1238" t="n">
-        <v>1.943</v>
-      </c>
-      <c r="J1238" t="n">
-        <v>1.954</v>
-      </c>
-      <c r="K1238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1238" t="inlineStr"/>
+      <c r="J1238" t="inlineStr"/>
+      <c r="K1238" t="inlineStr"/>
       <c r="L1238" t="n">
         <v>1</v>
       </c>
@@ -43672,19 +44930,11 @@
         <v>-2989592.274748731</v>
       </c>
       <c r="H1239" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1239" t="n">
-        <v>1.946</v>
-      </c>
-      <c r="J1239" t="n">
-        <v>1.954</v>
-      </c>
-      <c r="K1239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1239" t="inlineStr"/>
+      <c r="J1239" t="inlineStr"/>
+      <c r="K1239" t="inlineStr"/>
       <c r="L1239" t="n">
         <v>1</v>
       </c>
@@ -43713,19 +44963,11 @@
         <v>-3020068.786248731</v>
       </c>
       <c r="H1240" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1240" t="n">
-        <v>1.947</v>
-      </c>
-      <c r="J1240" t="n">
-        <v>1.954</v>
-      </c>
-      <c r="K1240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1240" t="inlineStr"/>
+      <c r="J1240" t="inlineStr"/>
+      <c r="K1240" t="inlineStr"/>
       <c r="L1240" t="n">
         <v>1</v>
       </c>
@@ -43754,19 +44996,11 @@
         <v>-3300813.055848731</v>
       </c>
       <c r="H1241" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1241" t="n">
-        <v>1.946</v>
-      </c>
-      <c r="J1241" t="n">
-        <v>1.954</v>
-      </c>
-      <c r="K1241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1241" t="inlineStr"/>
+      <c r="J1241" t="inlineStr"/>
+      <c r="K1241" t="inlineStr"/>
       <c r="L1241" t="n">
         <v>1</v>
       </c>
@@ -43795,19 +45029,11 @@
         <v>-3240428.559948731</v>
       </c>
       <c r="H1242" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1242" t="n">
-        <v>1.945</v>
-      </c>
-      <c r="J1242" t="n">
-        <v>1.954</v>
-      </c>
-      <c r="K1242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1242" t="inlineStr"/>
+      <c r="J1242" t="inlineStr"/>
+      <c r="K1242" t="inlineStr"/>
       <c r="L1242" t="n">
         <v>1</v>
       </c>
@@ -43836,19 +45062,11 @@
         <v>-3172683.215848731</v>
       </c>
       <c r="H1243" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1243" t="n">
-        <v>1.949</v>
-      </c>
-      <c r="J1243" t="n">
-        <v>1.954</v>
-      </c>
-      <c r="K1243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1243" t="inlineStr"/>
+      <c r="J1243" t="inlineStr"/>
+      <c r="K1243" t="inlineStr"/>
       <c r="L1243" t="n">
         <v>1</v>
       </c>
@@ -43877,19 +45095,11 @@
         <v>-3136328.662848731</v>
       </c>
       <c r="H1244" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1244" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="J1244" t="n">
-        <v>1.954</v>
-      </c>
-      <c r="K1244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1244" t="inlineStr"/>
+      <c r="J1244" t="inlineStr"/>
+      <c r="K1244" t="inlineStr"/>
       <c r="L1244" t="n">
         <v>1</v>
       </c>
@@ -43918,19 +45128,11 @@
         <v>-3136328.662848731</v>
       </c>
       <c r="H1245" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1245" t="n">
-        <v>1.966</v>
-      </c>
-      <c r="J1245" t="n">
-        <v>1.954</v>
-      </c>
-      <c r="K1245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1245" t="inlineStr"/>
+      <c r="J1245" t="inlineStr"/>
+      <c r="K1245" t="inlineStr"/>
       <c r="L1245" t="n">
         <v>1</v>
       </c>
@@ -43962,14 +45164,8 @@
         <v>0</v>
       </c>
       <c r="I1246" t="inlineStr"/>
-      <c r="J1246" t="n">
-        <v>1.954</v>
-      </c>
-      <c r="K1246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1246" t="inlineStr"/>
+      <c r="K1246" t="inlineStr"/>
       <c r="L1246" t="n">
         <v>1</v>
       </c>
@@ -44001,14 +45197,8 @@
         <v>0</v>
       </c>
       <c r="I1247" t="inlineStr"/>
-      <c r="J1247" t="n">
-        <v>1.954</v>
-      </c>
-      <c r="K1247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1247" t="inlineStr"/>
+      <c r="K1247" t="inlineStr"/>
       <c r="L1247" t="n">
         <v>1</v>
       </c>
@@ -44040,14 +45230,8 @@
         <v>0</v>
       </c>
       <c r="I1248" t="inlineStr"/>
-      <c r="J1248" t="n">
-        <v>1.954</v>
-      </c>
-      <c r="K1248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1248" t="inlineStr"/>
+      <c r="K1248" t="inlineStr"/>
       <c r="L1248" t="n">
         <v>1</v>
       </c>
@@ -44079,14 +45263,8 @@
         <v>0</v>
       </c>
       <c r="I1249" t="inlineStr"/>
-      <c r="J1249" t="n">
-        <v>1.954</v>
-      </c>
-      <c r="K1249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1249" t="inlineStr"/>
+      <c r="K1249" t="inlineStr"/>
       <c r="L1249" t="n">
         <v>1</v>
       </c>
@@ -44118,14 +45296,8 @@
         <v>0</v>
       </c>
       <c r="I1250" t="inlineStr"/>
-      <c r="J1250" t="n">
-        <v>1.954</v>
-      </c>
-      <c r="K1250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1250" t="inlineStr"/>
+      <c r="K1250" t="inlineStr"/>
       <c r="L1250" t="n">
         <v>1</v>
       </c>
@@ -44157,14 +45329,8 @@
         <v>0</v>
       </c>
       <c r="I1251" t="inlineStr"/>
-      <c r="J1251" t="n">
-        <v>1.954</v>
-      </c>
-      <c r="K1251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1251" t="inlineStr"/>
+      <c r="K1251" t="inlineStr"/>
       <c r="L1251" t="n">
         <v>1</v>
       </c>
@@ -44196,14 +45362,8 @@
         <v>0</v>
       </c>
       <c r="I1252" t="inlineStr"/>
-      <c r="J1252" t="n">
-        <v>1.954</v>
-      </c>
-      <c r="K1252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1252" t="inlineStr"/>
+      <c r="K1252" t="inlineStr"/>
       <c r="L1252" t="n">
         <v>1</v>
       </c>
@@ -44235,14 +45395,8 @@
         <v>0</v>
       </c>
       <c r="I1253" t="inlineStr"/>
-      <c r="J1253" t="n">
-        <v>1.954</v>
-      </c>
-      <c r="K1253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1253" t="inlineStr"/>
+      <c r="K1253" t="inlineStr"/>
       <c r="L1253" t="n">
         <v>1</v>
       </c>
@@ -44274,14 +45428,8 @@
         <v>0</v>
       </c>
       <c r="I1254" t="inlineStr"/>
-      <c r="J1254" t="n">
-        <v>1.954</v>
-      </c>
-      <c r="K1254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1254" t="inlineStr"/>
+      <c r="K1254" t="inlineStr"/>
       <c r="L1254" t="n">
         <v>1</v>
       </c>
@@ -44313,14 +45461,8 @@
         <v>0</v>
       </c>
       <c r="I1255" t="inlineStr"/>
-      <c r="J1255" t="n">
-        <v>1.954</v>
-      </c>
-      <c r="K1255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1255" t="inlineStr"/>
+      <c r="K1255" t="inlineStr"/>
       <c r="L1255" t="n">
         <v>1</v>
       </c>
@@ -44352,14 +45494,8 @@
         <v>0</v>
       </c>
       <c r="I1256" t="inlineStr"/>
-      <c r="J1256" t="n">
-        <v>1.954</v>
-      </c>
-      <c r="K1256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1256" t="inlineStr"/>
+      <c r="K1256" t="inlineStr"/>
       <c r="L1256" t="n">
         <v>1</v>
       </c>
@@ -44391,14 +45527,8 @@
         <v>0</v>
       </c>
       <c r="I1257" t="inlineStr"/>
-      <c r="J1257" t="n">
-        <v>1.954</v>
-      </c>
-      <c r="K1257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1257" t="inlineStr"/>
+      <c r="K1257" t="inlineStr"/>
       <c r="L1257" t="n">
         <v>1</v>
       </c>
@@ -44430,14 +45560,8 @@
         <v>0</v>
       </c>
       <c r="I1258" t="inlineStr"/>
-      <c r="J1258" t="n">
-        <v>1.954</v>
-      </c>
-      <c r="K1258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1258" t="inlineStr"/>
+      <c r="K1258" t="inlineStr"/>
       <c r="L1258" t="n">
         <v>1</v>
       </c>
@@ -44469,14 +45593,8 @@
         <v>0</v>
       </c>
       <c r="I1259" t="inlineStr"/>
-      <c r="J1259" t="n">
-        <v>1.954</v>
-      </c>
-      <c r="K1259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1259" t="inlineStr"/>
+      <c r="K1259" t="inlineStr"/>
       <c r="L1259" t="n">
         <v>1</v>
       </c>
@@ -44508,14 +45626,8 @@
         <v>0</v>
       </c>
       <c r="I1260" t="inlineStr"/>
-      <c r="J1260" t="n">
-        <v>1.954</v>
-      </c>
-      <c r="K1260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1260" t="inlineStr"/>
+      <c r="K1260" t="inlineStr"/>
       <c r="L1260" t="n">
         <v>1</v>
       </c>
@@ -44547,14 +45659,8 @@
         <v>0</v>
       </c>
       <c r="I1261" t="inlineStr"/>
-      <c r="J1261" t="n">
-        <v>1.954</v>
-      </c>
-      <c r="K1261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1261" t="inlineStr"/>
+      <c r="K1261" t="inlineStr"/>
       <c r="L1261" t="n">
         <v>1</v>
       </c>
@@ -44586,14 +45692,8 @@
         <v>0</v>
       </c>
       <c r="I1262" t="inlineStr"/>
-      <c r="J1262" t="n">
-        <v>1.954</v>
-      </c>
-      <c r="K1262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1262" t="inlineStr"/>
+      <c r="K1262" t="inlineStr"/>
       <c r="L1262" t="n">
         <v>1</v>
       </c>
@@ -44625,14 +45725,8 @@
         <v>0</v>
       </c>
       <c r="I1263" t="inlineStr"/>
-      <c r="J1263" t="n">
-        <v>1.954</v>
-      </c>
-      <c r="K1263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1263" t="inlineStr"/>
+      <c r="K1263" t="inlineStr"/>
       <c r="L1263" t="n">
         <v>1</v>
       </c>
@@ -44664,14 +45758,8 @@
         <v>0</v>
       </c>
       <c r="I1264" t="inlineStr"/>
-      <c r="J1264" t="n">
-        <v>1.954</v>
-      </c>
-      <c r="K1264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1264" t="inlineStr"/>
+      <c r="K1264" t="inlineStr"/>
       <c r="L1264" t="n">
         <v>1</v>
       </c>
@@ -44703,14 +45791,8 @@
         <v>0</v>
       </c>
       <c r="I1265" t="inlineStr"/>
-      <c r="J1265" t="n">
-        <v>1.954</v>
-      </c>
-      <c r="K1265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1265" t="inlineStr"/>
+      <c r="K1265" t="inlineStr"/>
       <c r="L1265" t="n">
         <v>1</v>
       </c>
@@ -44742,14 +45824,8 @@
         <v>0</v>
       </c>
       <c r="I1266" t="inlineStr"/>
-      <c r="J1266" t="n">
-        <v>1.954</v>
-      </c>
-      <c r="K1266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1266" t="inlineStr"/>
+      <c r="K1266" t="inlineStr"/>
       <c r="L1266" t="n">
         <v>1</v>
       </c>
@@ -44781,14 +45857,8 @@
         <v>0</v>
       </c>
       <c r="I1267" t="inlineStr"/>
-      <c r="J1267" t="n">
-        <v>1.954</v>
-      </c>
-      <c r="K1267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1267" t="inlineStr"/>
+      <c r="K1267" t="inlineStr"/>
       <c r="L1267" t="n">
         <v>1</v>
       </c>
@@ -44820,14 +45890,8 @@
         <v>0</v>
       </c>
       <c r="I1268" t="inlineStr"/>
-      <c r="J1268" t="n">
-        <v>1.954</v>
-      </c>
-      <c r="K1268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1268" t="inlineStr"/>
+      <c r="K1268" t="inlineStr"/>
       <c r="L1268" t="n">
         <v>1</v>
       </c>
@@ -44859,14 +45923,8 @@
         <v>0</v>
       </c>
       <c r="I1269" t="inlineStr"/>
-      <c r="J1269" t="n">
-        <v>1.954</v>
-      </c>
-      <c r="K1269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1269" t="inlineStr"/>
+      <c r="K1269" t="inlineStr"/>
       <c r="L1269" t="n">
         <v>1</v>
       </c>
@@ -44898,14 +45956,8 @@
         <v>0</v>
       </c>
       <c r="I1270" t="inlineStr"/>
-      <c r="J1270" t="n">
-        <v>1.954</v>
-      </c>
-      <c r="K1270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1270" t="inlineStr"/>
+      <c r="K1270" t="inlineStr"/>
       <c r="L1270" t="n">
         <v>1</v>
       </c>
@@ -44937,14 +45989,8 @@
         <v>0</v>
       </c>
       <c r="I1271" t="inlineStr"/>
-      <c r="J1271" t="n">
-        <v>1.954</v>
-      </c>
-      <c r="K1271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1271" t="inlineStr"/>
+      <c r="K1271" t="inlineStr"/>
       <c r="L1271" t="n">
         <v>1</v>
       </c>
@@ -44976,14 +46022,8 @@
         <v>0</v>
       </c>
       <c r="I1272" t="inlineStr"/>
-      <c r="J1272" t="n">
-        <v>1.954</v>
-      </c>
-      <c r="K1272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1272" t="inlineStr"/>
+      <c r="K1272" t="inlineStr"/>
       <c r="L1272" t="n">
         <v>1</v>
       </c>
